--- a/InfoTableData.xlsx
+++ b/InfoTableData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="857">
   <si>
     <t>bio</t>
   </si>
@@ -2155,9 +2155,6 @@
     <t>Adolfina_x000D_</t>
   </si>
   <si>
-    <t>Richard J Falkman_x000D_</t>
-  </si>
-  <si>
     <t>1680 – January 1751_x000D__x000D_</t>
   </si>
   <si>
@@ -2567,6 +2564,27 @@
   </si>
   <si>
     <t>18 Oct 1965</t>
+  </si>
+  <si>
+    <t>Mary Ann</t>
+  </si>
+  <si>
+    <t>Mary Ann Cochran.txt</t>
+  </si>
+  <si>
+    <t>Cleveland, Oh.</t>
+  </si>
+  <si>
+    <t>07 Jan 1946 - 30 Oct 2016</t>
+  </si>
+  <si>
+    <t>Ernest J Cochran</t>
+  </si>
+  <si>
+    <t>Helen Elizabeth Seibert</t>
+  </si>
+  <si>
+    <t>Mary Ann Cochran.jpg</t>
   </si>
 </sst>
 </file>
@@ -2945,9 +2963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2991,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -3086,7 +3104,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B2" t="s">
         <v>678</v>
@@ -3098,10 +3116,10 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G2" s="2">
         <v>775</v>
@@ -3128,7 +3146,7 @@
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -3211,7 +3229,7 @@
         <v>480</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G3" s="2">
         <v>1560</v>
@@ -3324,7 +3342,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G4" s="2">
         <v>1590</v>
@@ -3437,7 +3455,7 @@
         <v>158</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G5" s="2">
         <v>1600</v>
@@ -3550,7 +3568,7 @@
         <v>578</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G6" s="2">
         <v>1620</v>
@@ -3660,10 +3678,10 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G7" s="2">
         <v>1625</v>
@@ -3773,7 +3791,7 @@
         <v>504</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G8" s="2">
         <v>1625</v>
@@ -3999,7 +4017,7 @@
         <v>502</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G10" s="2">
         <v>1630</v>
@@ -4112,7 +4130,7 @@
         <v>513</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G11" s="2">
         <v>1630</v>
@@ -4225,7 +4243,7 @@
         <v>453</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G12" s="2">
         <v>1635</v>
@@ -4338,7 +4356,7 @@
         <v>294</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G13" s="2">
         <v>1640</v>
@@ -4451,7 +4469,7 @@
         <v>302</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G14" s="2">
         <v>1650</v>
@@ -4564,7 +4582,7 @@
         <v>319</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G15" s="2">
         <v>1650</v>
@@ -4677,7 +4695,7 @@
         <v>297</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G16" s="2">
         <v>1650</v>
@@ -4790,7 +4808,7 @@
         <v>317</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G17" s="2">
         <v>1660</v>
@@ -4903,7 +4921,7 @@
         <v>499</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G18" s="2">
         <v>1660</v>
@@ -5016,7 +5034,7 @@
         <v>450</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G19" s="2">
         <v>1665</v>
@@ -5129,7 +5147,7 @@
         <v>298</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G20" s="2">
         <v>1670</v>
@@ -5242,7 +5260,7 @@
         <v>470</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G21" s="2">
         <v>1670</v>
@@ -5355,7 +5373,7 @@
         <v>570</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G22" s="2">
         <v>1670</v>
@@ -5468,7 +5486,7 @@
         <v>580</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G23" s="2">
         <v>1670</v>
@@ -5581,7 +5599,7 @@
         <v>158</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G24" s="2">
         <v>1672</v>
@@ -5694,7 +5712,7 @@
         <v>474</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G25" s="2">
         <v>1674</v>
@@ -5804,7 +5822,7 @@
         <v>240</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G26" s="2">
         <v>1675</v>
@@ -5917,7 +5935,7 @@
         <v>238</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G27" s="2">
         <v>1675</v>
@@ -6030,7 +6048,7 @@
         <v>311</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G28" s="2">
         <v>1676</v>
@@ -6143,7 +6161,7 @@
         <v>645</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G29" s="2">
         <v>1676</v>
@@ -6236,7 +6254,7 @@
         <v>36</v>
       </c>
       <c r="AK29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -6256,7 +6274,7 @@
         <v>313</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G30" s="2">
         <v>1680</v>
@@ -6369,7 +6387,7 @@
         <v>483</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G31" s="2">
         <v>1690</v>
@@ -6595,7 +6613,7 @@
         <v>575</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G33" s="2">
         <v>1697</v>
@@ -6708,7 +6726,7 @@
         <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G34" s="2">
         <v>1700</v>
@@ -6821,7 +6839,7 @@
         <v>604</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G35" s="2">
         <v>1700</v>
@@ -6934,7 +6952,7 @@
         <v>568</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G36" s="2">
         <v>1700</v>
@@ -7386,7 +7404,7 @@
         <v>320</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G40" s="2">
         <v>1719</v>
@@ -7612,7 +7630,7 @@
         <v>632</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G42" s="2">
         <v>1737</v>
@@ -7725,7 +7743,7 @@
         <v>474</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G43" s="2">
         <v>1738</v>
@@ -7951,7 +7969,7 @@
         <v>607</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G45" s="2">
         <v>1750</v>
@@ -8174,7 +8192,7 @@
         <v>448</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G47" s="2">
         <v>1798</v>
@@ -8287,7 +8305,7 @@
         <v>251</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G48" s="2">
         <v>1823</v>
@@ -8400,7 +8418,7 @@
         <v>228</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G49" s="2">
         <v>1825</v>
@@ -8513,7 +8531,7 @@
         <v>253</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G50" s="2">
         <v>1830</v>
@@ -8626,7 +8644,7 @@
         <v>273</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G51" s="2">
         <v>1830</v>
@@ -8965,7 +8983,7 @@
         <v>276</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G54" s="2">
         <v>1830</v>
@@ -9051,7 +9069,7 @@
         <v>639</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G55" s="2">
         <v>1834</v>
@@ -9155,13 +9173,13 @@
         <v>478</v>
       </c>
       <c r="C56" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D56" t="s">
         <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>540</v>
@@ -9203,7 +9221,7 @@
         <v>36</v>
       </c>
       <c r="S56" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T56" t="s">
         <v>146</v>
@@ -9378,10 +9396,10 @@
         <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D58" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E58" t="s">
         <v>108</v>
@@ -9830,7 +9848,7 @@
         <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D62" t="s">
         <v>36</v>
@@ -10895,7 +10913,7 @@
         <v>36</v>
       </c>
       <c r="S71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="T71" t="s">
         <v>146</v>
@@ -11421,7 +11439,7 @@
         <v>243</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G76" s="2">
         <v>1874</v>
@@ -12099,7 +12117,7 @@
         <v>447</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G82" s="2">
         <v>1891</v>
@@ -12480,7 +12498,7 @@
         <v>149</v>
       </c>
       <c r="T85" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U85" t="s">
         <v>36</v>
@@ -12887,7 +12905,7 @@
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>373</v>
@@ -13229,7 +13247,7 @@
         <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G92" s="2">
         <v>1915</v>
@@ -13440,16 +13458,16 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D94" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E94" t="s">
         <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G94" s="2">
         <v>1918</v>
@@ -13464,7 +13482,7 @@
         <v>435</v>
       </c>
       <c r="K94" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L94" t="s">
         <v>75</v>
@@ -13562,7 +13580,7 @@
         <v>41</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G95" s="2">
         <v>1921</v>
@@ -13770,7 +13788,7 @@
     </row>
     <row r="97" spans="1:37">
       <c r="A97" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B97" t="s">
         <v>387</v>
@@ -13779,13 +13797,13 @@
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E97" t="s">
         <v>213</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G97" s="2">
         <v>1935</v>
@@ -14005,34 +14023,34 @@
         <v>124</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G99" s="2">
         <v>1937</v>
       </c>
       <c r="H99" t="s">
+        <v>796</v>
+      </c>
+      <c r="I99" t="s">
         <v>797</v>
       </c>
-      <c r="I99" t="s">
-        <v>798</v>
-      </c>
       <c r="L99" t="s">
+        <v>803</v>
+      </c>
+      <c r="M99" t="s">
         <v>804</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>805</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>806</v>
       </c>
-      <c r="O99" t="s">
-        <v>807</v>
-      </c>
       <c r="P99" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q99" t="s">
         <v>353</v>
@@ -14282,31 +14300,31 @@
         <v>675</v>
       </c>
       <c r="B102" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G102" s="2">
         <v>1942</v>
       </c>
       <c r="H102" t="s">
+        <v>796</v>
+      </c>
+      <c r="I102" t="s">
         <v>797</v>
       </c>
-      <c r="I102" t="s">
-        <v>798</v>
-      </c>
       <c r="O102" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P102" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q102" t="s">
         <v>353</v>
@@ -14332,7 +14350,7 @@
         <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D103" t="s">
         <v>400</v>
@@ -14451,10 +14469,10 @@
         <v>390</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H104" t="s">
         <v>75</v>
@@ -14677,7 +14695,7 @@
         <v>624</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G106" s="2">
         <v>1945</v>
@@ -14778,7 +14796,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C107" t="s">
         <v>36</v>
@@ -14790,7 +14808,7 @@
         <v>193</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G107" s="2">
         <v>1946</v>
@@ -14802,7 +14820,7 @@
         <v>121</v>
       </c>
       <c r="J107" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K107" t="s">
         <v>103</v>
@@ -14817,7 +14835,7 @@
         <v>36</v>
       </c>
       <c r="S107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="T107" t="s">
         <v>36</v>
@@ -14927,7 +14945,7 @@
         <v>78</v>
       </c>
       <c r="S108" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T108" t="s">
         <v>333</v>
@@ -15001,7 +15019,7 @@
         <v>348</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G109" s="2">
         <v>1946</v>
@@ -15019,10 +15037,10 @@
         <v>345</v>
       </c>
       <c r="L109" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P109" t="s">
         <v>346</v>
@@ -15034,7 +15052,7 @@
         <v>78</v>
       </c>
       <c r="S109" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T109" t="s">
         <v>263</v>
@@ -15108,7 +15126,7 @@
         <v>347</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G110" s="2">
         <v>1946</v>
@@ -15129,16 +15147,16 @@
         <v>353</v>
       </c>
       <c r="P110" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q110" t="s">
         <v>800</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>801</v>
       </c>
       <c r="R110" t="s">
         <v>78</v>
       </c>
       <c r="S110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T110" t="s">
         <v>263</v>
@@ -15313,7 +15331,7 @@
         <v>260</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>850</v>
       </c>
       <c r="C112" t="s">
         <v>36</v>
@@ -15325,22 +15343,22 @@
         <v>261</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>256</v>
+        <v>853</v>
       </c>
       <c r="G112" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H112" t="s">
-        <v>713</v>
+        <v>854</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>855</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>851</v>
       </c>
       <c r="K112" t="s">
-        <v>255</v>
+        <v>852</v>
       </c>
       <c r="L112" t="s">
         <v>257</v>
@@ -15352,19 +15370,10 @@
         <v>36</v>
       </c>
       <c r="O112" t="s">
-        <v>261</v>
-      </c>
-      <c r="P112" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>76</v>
-      </c>
-      <c r="R112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S112" t="s">
-        <v>262</v>
+        <v>856</v>
       </c>
       <c r="T112" t="s">
         <v>263</v>
@@ -15542,7 +15551,7 @@
         <v>674</v>
       </c>
       <c r="C114" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D114" t="s">
         <v>36</v>
@@ -15551,16 +15560,16 @@
         <v>353</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G114" s="2">
         <v>1947</v>
       </c>
       <c r="H114" t="s">
+        <v>796</v>
+      </c>
+      <c r="I114" t="s">
         <v>797</v>
-      </c>
-      <c r="I114" t="s">
-        <v>798</v>
       </c>
       <c r="J114" t="s">
         <v>36</v>
@@ -15581,13 +15590,13 @@
         <v>76</v>
       </c>
       <c r="P114" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q114" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="S114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T114" t="s">
         <v>263</v>
@@ -15765,7 +15774,7 @@
         <v>288</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G116" s="2">
         <v>1950</v>
@@ -15878,16 +15887,16 @@
         <v>344</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G117" s="2">
         <v>1951</v>
       </c>
       <c r="H117" t="s">
+        <v>735</v>
+      </c>
+      <c r="I117" t="s">
         <v>736</v>
-      </c>
-      <c r="I117" t="s">
-        <v>737</v>
       </c>
       <c r="K117" t="s">
         <v>408</v>
@@ -15902,25 +15911,25 @@
         <v>137</v>
       </c>
       <c r="P117" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q117" t="s">
         <v>822</v>
       </c>
-      <c r="Q117" t="s">
-        <v>823</v>
-      </c>
       <c r="S117" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="T117" t="s">
         <v>342</v>
       </c>
       <c r="U117" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V117" t="s">
+        <v>737</v>
+      </c>
+      <c r="W117" t="s">
         <v>738</v>
-      </c>
-      <c r="W117" t="s">
-        <v>739</v>
       </c>
       <c r="X117" t="s">
         <v>343</v>
@@ -16095,16 +16104,16 @@
         <v>182</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G119" s="2">
         <v>1957</v>
       </c>
       <c r="H119" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I119" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J119" t="s">
         <v>36</v>
@@ -16140,7 +16149,7 @@
         <v>414</v>
       </c>
       <c r="U119" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="V119" t="s">
         <v>263</v>
@@ -16336,7 +16345,7 @@
         <v>367</v>
       </c>
       <c r="K121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L121" t="s">
         <v>36</v>
@@ -16348,7 +16357,7 @@
         <v>36</v>
       </c>
       <c r="O121" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P121" t="s">
         <v>347</v>
@@ -16431,7 +16440,7 @@
         <v>391</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G122" s="2">
         <v>1971</v>
@@ -16529,58 +16538,58 @@
     </row>
     <row r="123" spans="1:37">
       <c r="A123" t="s">
+        <v>778</v>
+      </c>
+      <c r="B123" t="s">
         <v>779</v>
       </c>
-      <c r="B123" t="s">
-        <v>780</v>
-      </c>
       <c r="E123" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G123" s="2">
         <v>1972</v>
       </c>
       <c r="H123" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I123" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K123" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L123" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M123" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N123" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O123" t="s">
         <v>340</v>
       </c>
       <c r="S123" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T123" t="s">
         <v>342</v>
       </c>
       <c r="U123" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V123" t="s">
+        <v>740</v>
+      </c>
+      <c r="W123" t="s">
         <v>741</v>
       </c>
-      <c r="W123" t="s">
+      <c r="X123" t="s">
         <v>742</v>
-      </c>
-      <c r="X123" t="s">
-        <v>743</v>
       </c>
       <c r="AD123">
         <v>125</v>
@@ -16603,7 +16612,7 @@
         <v>340</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G124" s="2">
         <v>1972</v>
@@ -16615,37 +16624,37 @@
         <v>344</v>
       </c>
       <c r="K124" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M124" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N124" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O124" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S124" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T124" t="s">
         <v>342</v>
       </c>
       <c r="U124" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V124" t="s">
+        <v>740</v>
+      </c>
+      <c r="W124" t="s">
         <v>741</v>
       </c>
-      <c r="W124" t="s">
+      <c r="X124" t="s">
         <v>742</v>
-      </c>
-      <c r="X124" t="s">
-        <v>743</v>
       </c>
       <c r="AD124">
         <v>128</v>
@@ -16674,7 +16683,7 @@
         <v>257</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G125" s="2">
         <v>1975</v>
@@ -16683,7 +16692,7 @@
         <v>77</v>
       </c>
       <c r="I125" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J125" t="s">
         <v>36</v>
@@ -16879,7 +16888,7 @@
         <v>392</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G127" s="2">
         <v>1978</v>
@@ -16992,7 +17001,7 @@
         <v>364</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G128" s="2">
         <v>2000</v>
@@ -17105,7 +17114,7 @@
         <v>366</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G129" s="2">
         <v>2002</v>
@@ -17197,55 +17206,55 @@
     </row>
     <row r="130" spans="1:37">
       <c r="A130" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B130" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C130" t="s">
         <v>89</v>
       </c>
       <c r="E130" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G130" s="2">
         <v>2006</v>
       </c>
       <c r="H130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I130" t="s">
         <v>340</v>
       </c>
       <c r="K130" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P130" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q130" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S130" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T130" t="s">
         <v>342</v>
       </c>
       <c r="U130" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V130" t="s">
+        <v>740</v>
+      </c>
+      <c r="W130" t="s">
         <v>741</v>
       </c>
-      <c r="W130" t="s">
+      <c r="X130" t="s">
         <v>742</v>
-      </c>
-      <c r="X130" t="s">
-        <v>743</v>
       </c>
       <c r="AD130">
         <v>127</v>
@@ -17259,55 +17268,55 @@
     </row>
     <row r="131" spans="1:37">
       <c r="A131" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C131" t="s">
         <v>124</v>
       </c>
       <c r="E131" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G131" s="2">
         <v>2008</v>
       </c>
       <c r="H131" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I131" t="s">
         <v>340</v>
       </c>
       <c r="K131" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P131" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q131" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S131" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T131" t="s">
         <v>342</v>
       </c>
       <c r="U131" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V131" t="s">
+        <v>740</v>
+      </c>
+      <c r="W131" t="s">
         <v>741</v>
       </c>
-      <c r="W131" t="s">
+      <c r="X131" t="s">
         <v>742</v>
-      </c>
-      <c r="X131" t="s">
-        <v>743</v>
       </c>
       <c r="AD131">
         <v>126</v>
@@ -17321,55 +17330,55 @@
     </row>
     <row r="132" spans="1:37">
       <c r="A132" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B132" t="s">
+        <v>789</v>
+      </c>
+      <c r="C132" t="s">
+        <v>793</v>
+      </c>
+      <c r="E132" t="s">
         <v>790</v>
       </c>
-      <c r="C132" t="s">
-        <v>794</v>
-      </c>
-      <c r="E132" t="s">
-        <v>791</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G132" s="2">
         <v>2011</v>
       </c>
       <c r="H132" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I132" t="s">
         <v>340</v>
       </c>
       <c r="K132" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P132" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q132" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S132" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T132" t="s">
         <v>342</v>
       </c>
       <c r="U132" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V132" t="s">
+        <v>740</v>
+      </c>
+      <c r="W132" t="s">
         <v>741</v>
       </c>
-      <c r="W132" t="s">
+      <c r="X132" t="s">
         <v>742</v>
-      </c>
-      <c r="X132" t="s">
-        <v>743</v>
       </c>
       <c r="AD132">
         <v>129</v>
@@ -17389,17 +17398,17 @@
         <v>478</v>
       </c>
       <c r="E133" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J133" t="s">
+        <v>841</v>
+      </c>
+      <c r="S133" t="s">
         <v>844</v>
-      </c>
-      <c r="J133" t="s">
-        <v>842</v>
-      </c>
-      <c r="S133" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="134" spans="1:37">

--- a/InfoTableData.xlsx
+++ b/InfoTableData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="858">
   <si>
     <t>bio</t>
   </si>
@@ -2545,9 +2545,6 @@
     <t>Pehr Noren</t>
   </si>
   <si>
-    <t>1837</t>
-  </si>
-  <si>
     <t>Pehr Noren (Karin's father).jpg</t>
   </si>
   <si>
@@ -2560,9 +2557,6 @@
     <t>Robert M Falkman</t>
   </si>
   <si>
-    <t>1965</t>
-  </si>
-  <si>
     <t>18 Oct 1965</t>
   </si>
   <si>
@@ -2585,6 +2579,15 @@
   </si>
   <si>
     <t>Mary Ann Cochran.jpg</t>
+  </si>
+  <si>
+    <t>Dorothy Syverson</t>
+  </si>
+  <si>
+    <t>Erica Falkman</t>
+  </si>
+  <si>
+    <t>Brendt Bierman.jpg</t>
   </si>
 </sst>
 </file>
@@ -2623,13 +2626,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2963,9 +2967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R125" sqref="R125"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S122" sqref="S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2974,7 +2978,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
@@ -3008,7 +3012,7 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>730</v>
       </c>
       <c r="H1" t="s">
@@ -3121,7 +3125,7 @@
       <c r="F2" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>775</v>
       </c>
       <c r="H2" t="s">
@@ -3231,7 +3235,7 @@
       <c r="F3" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1560</v>
       </c>
       <c r="H3" t="s">
@@ -3344,7 +3348,7 @@
       <c r="F4" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>1590</v>
       </c>
       <c r="H4" t="s">
@@ -3457,7 +3461,7 @@
       <c r="F5" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>1600</v>
       </c>
       <c r="H5" t="s">
@@ -3570,7 +3574,7 @@
       <c r="F6" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>1620</v>
       </c>
       <c r="H6" t="s">
@@ -3666,10 +3670,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -3678,28 +3682,28 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>846</v>
+        <v>504</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1625</v>
       </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>498</v>
       </c>
       <c r="L7" t="s">
-        <v>297</v>
+        <v>499</v>
       </c>
       <c r="M7" t="s">
         <v>136</v>
@@ -3708,19 +3712,22 @@
         <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>175</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="U7" t="s">
         <v>147</v>
@@ -3750,19 +3757,19 @@
         <v>36</v>
       </c>
       <c r="AD7">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AE7" t="s">
         <v>36</v>
       </c>
       <c r="AF7" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="AG7" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="AH7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="AI7" t="s">
         <v>36</v>
@@ -3771,15 +3778,15 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="B8" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -3788,28 +3795,28 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>504</v>
+        <v>845</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1625</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>498</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>499</v>
+        <v>297</v>
       </c>
       <c r="M8" t="s">
         <v>136</v>
@@ -3818,22 +3825,19 @@
         <v>137</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="R8" t="s">
-        <v>175</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="U8" t="s">
         <v>147</v>
@@ -3863,19 +3867,19 @@
         <v>36</v>
       </c>
       <c r="AD8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AE8" t="s">
         <v>36</v>
       </c>
       <c r="AF8" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>36</v>
@@ -3884,7 +3888,7 @@
         <v>36</v>
       </c>
       <c r="AK8" t="s">
-        <v>687</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3906,7 +3910,7 @@
       <c r="F9" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1630</v>
       </c>
       <c r="H9" t="s">
@@ -4019,7 +4023,7 @@
       <c r="F10" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1630</v>
       </c>
       <c r="H10" t="s">
@@ -4132,7 +4136,7 @@
       <c r="F11" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>1630</v>
       </c>
       <c r="H11" t="s">
@@ -4245,7 +4249,7 @@
       <c r="F12" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>1635</v>
       </c>
       <c r="H12" t="s">
@@ -4358,7 +4362,7 @@
       <c r="F13" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>1640</v>
       </c>
       <c r="H13" t="s">
@@ -4471,7 +4475,7 @@
       <c r="F14" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>1650</v>
       </c>
       <c r="H14" t="s">
@@ -4584,7 +4588,7 @@
       <c r="F15" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>1650</v>
       </c>
       <c r="H15" t="s">
@@ -4697,7 +4701,7 @@
       <c r="F16" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>1650</v>
       </c>
       <c r="H16" t="s">
@@ -4810,7 +4814,7 @@
       <c r="F17" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>1660</v>
       </c>
       <c r="H17" t="s">
@@ -4923,7 +4927,7 @@
       <c r="F18" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>1660</v>
       </c>
       <c r="H18" t="s">
@@ -5036,7 +5040,7 @@
       <c r="F19" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>1665</v>
       </c>
       <c r="H19" t="s">
@@ -5149,7 +5153,7 @@
       <c r="F20" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>1670</v>
       </c>
       <c r="H20" t="s">
@@ -5262,7 +5266,7 @@
       <c r="F21" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>1670</v>
       </c>
       <c r="H21" t="s">
@@ -5375,7 +5379,7 @@
       <c r="F22" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>1670</v>
       </c>
       <c r="H22" t="s">
@@ -5488,7 +5492,7 @@
       <c r="F23" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>1670</v>
       </c>
       <c r="H23" t="s">
@@ -5601,7 +5605,7 @@
       <c r="F24" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>1672</v>
       </c>
       <c r="H24" t="s">
@@ -5714,7 +5718,7 @@
       <c r="F25" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>1674</v>
       </c>
       <c r="H25" t="s">
@@ -5824,7 +5828,7 @@
       <c r="F26" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>1675</v>
       </c>
       <c r="H26" t="s">
@@ -5937,7 +5941,7 @@
       <c r="F27" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>1675</v>
       </c>
       <c r="H27" t="s">
@@ -6050,7 +6054,7 @@
       <c r="F28" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>1676</v>
       </c>
       <c r="H28" t="s">
@@ -6163,7 +6167,7 @@
       <c r="F29" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>1676</v>
       </c>
       <c r="H29" t="s">
@@ -6276,7 +6280,7 @@
       <c r="F30" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>1680</v>
       </c>
       <c r="H30" t="s">
@@ -6389,7 +6393,7 @@
       <c r="F31" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>1690</v>
       </c>
       <c r="H31" t="s">
@@ -6502,7 +6506,7 @@
       <c r="F32" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <v>1695</v>
       </c>
       <c r="H32" t="s">
@@ -6615,7 +6619,7 @@
       <c r="F33" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>1697</v>
       </c>
       <c r="H33" t="s">
@@ -6728,7 +6732,7 @@
       <c r="F34" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <v>1700</v>
       </c>
       <c r="H34" t="s">
@@ -6841,7 +6845,7 @@
       <c r="F35" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>1700</v>
       </c>
       <c r="H35" t="s">
@@ -6954,7 +6958,7 @@
       <c r="F36" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>1700</v>
       </c>
       <c r="H36" t="s">
@@ -7067,7 +7071,7 @@
       <c r="F37" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <v>1707</v>
       </c>
       <c r="H37" t="s">
@@ -7180,7 +7184,7 @@
       <c r="F38" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <v>1714</v>
       </c>
       <c r="H38" t="s">
@@ -7293,7 +7297,7 @@
       <c r="F39" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>1719</v>
       </c>
       <c r="H39" t="s">
@@ -7406,7 +7410,7 @@
       <c r="F40" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>1719</v>
       </c>
       <c r="H40" t="s">
@@ -7519,7 +7523,7 @@
       <c r="F41" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>1736</v>
       </c>
       <c r="H41" t="s">
@@ -7632,7 +7636,7 @@
       <c r="F42" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>1737</v>
       </c>
       <c r="H42" t="s">
@@ -7745,7 +7749,7 @@
       <c r="F43" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>1738</v>
       </c>
       <c r="H43" t="s">
@@ -7858,7 +7862,7 @@
       <c r="F44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <v>1745</v>
       </c>
       <c r="H44" t="s">
@@ -7971,7 +7975,7 @@
       <c r="F45" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>1750</v>
       </c>
       <c r="H45" t="s">
@@ -8084,7 +8088,7 @@
       <c r="F46" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>1773</v>
       </c>
       <c r="H46" t="s">
@@ -8194,7 +8198,7 @@
       <c r="F47" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>1798</v>
       </c>
       <c r="H47" t="s">
@@ -8307,7 +8311,7 @@
       <c r="F48" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>1823</v>
       </c>
       <c r="H48" t="s">
@@ -8420,7 +8424,7 @@
       <c r="F49" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>1825</v>
       </c>
       <c r="H49" t="s">
@@ -8533,7 +8537,7 @@
       <c r="F50" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <v>1830</v>
       </c>
       <c r="H50" t="s">
@@ -8646,7 +8650,7 @@
       <c r="F51" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>1830</v>
       </c>
       <c r="H51" t="s">
@@ -8759,7 +8763,7 @@
       <c r="F52" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <v>1830</v>
       </c>
       <c r="H52" t="s">
@@ -8872,7 +8876,7 @@
       <c r="F53" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <v>1830</v>
       </c>
       <c r="H53" t="s">
@@ -8985,7 +8989,7 @@
       <c r="F54" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <v>1830</v>
       </c>
       <c r="H54" t="s">
@@ -9071,7 +9075,7 @@
       <c r="F55" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <v>1834</v>
       </c>
       <c r="H55" t="s">
@@ -9184,7 +9188,7 @@
       <c r="F56" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <v>1837</v>
       </c>
       <c r="H56" t="s">
@@ -9221,7 +9225,7 @@
         <v>36</v>
       </c>
       <c r="S56" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T56" t="s">
         <v>146</v>
@@ -9280,112 +9284,23 @@
     </row>
     <row r="57" spans="1:37">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>536</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
+        <v>478</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1852</v>
-      </c>
-      <c r="H57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" t="s">
-        <v>36</v>
+        <v>842</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" s="4">
+        <v>1837</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
-      </c>
-      <c r="K57" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" t="s">
-        <v>94</v>
-      </c>
-      <c r="M57" t="s">
-        <v>95</v>
-      </c>
-      <c r="N57" t="s">
-        <v>36</v>
-      </c>
-      <c r="O57" t="s">
-        <v>101</v>
-      </c>
-      <c r="P57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" t="s">
-        <v>36</v>
+        <v>841</v>
       </c>
       <c r="S57" t="s">
-        <v>47</v>
-      </c>
-      <c r="T57" t="s">
-        <v>100</v>
-      </c>
-      <c r="U57" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" t="s">
-        <v>36</v>
-      </c>
-      <c r="W57" t="s">
-        <v>36</v>
-      </c>
-      <c r="X57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD57">
-        <v>69</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>357</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:37">
@@ -9393,31 +9308,31 @@
         <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>720</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>830</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <v>1852</v>
       </c>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>639</v>
+        <v>36</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="K58" t="s">
         <v>92</v>
@@ -9444,7 +9359,7 @@
         <v>36</v>
       </c>
       <c r="S58" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="T58" t="s">
         <v>100</v>
@@ -9477,7 +9392,7 @@
         <v>36</v>
       </c>
       <c r="AD58">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AE58" t="s">
         <v>36</v>
@@ -9494,70 +9409,67 @@
       <c r="AI58" t="s">
         <v>36</v>
       </c>
-      <c r="AJ58" t="s">
-        <v>36</v>
-      </c>
       <c r="AK58" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:37">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>720</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>830</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1852</v>
+      </c>
+      <c r="H59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" t="s">
+        <v>639</v>
+      </c>
+      <c r="J59" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" t="s">
+        <v>95</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G59" s="2">
-        <v>1858</v>
-      </c>
-      <c r="H59" t="s">
-        <v>228</v>
-      </c>
-      <c r="I59" t="s">
-        <v>229</v>
-      </c>
-      <c r="J59" t="s">
-        <v>230</v>
-      </c>
-      <c r="K59" t="s">
-        <v>231</v>
-      </c>
-      <c r="L59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M59" t="s">
-        <v>113</v>
-      </c>
-      <c r="N59" t="s">
-        <v>94</v>
-      </c>
-      <c r="O59" t="s">
-        <v>236</v>
-      </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="Q59" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="R59" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T59" t="s">
         <v>100</v>
@@ -9575,13 +9487,13 @@
         <v>36</v>
       </c>
       <c r="Y59" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="Z59" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="AA59" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="AB59" t="s">
         <v>36</v>
@@ -9590,7 +9502,7 @@
         <v>36</v>
       </c>
       <c r="AD59">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE59" t="s">
         <v>36</v>
@@ -9611,29 +9523,29 @@
         <v>36</v>
       </c>
       <c r="AK59" t="s">
-        <v>471</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:37">
       <c r="A60" t="s">
-        <v>599</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
-        <v>535</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <v>1858</v>
       </c>
       <c r="H60" t="s">
@@ -9643,7 +9555,7 @@
         <v>229</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="K60" t="s">
         <v>231</v>
@@ -9658,7 +9570,7 @@
         <v>94</v>
       </c>
       <c r="O60" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="P60" t="s">
         <v>223</v>
@@ -9670,7 +9582,7 @@
         <v>225</v>
       </c>
       <c r="S60" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="T60" t="s">
         <v>100</v>
@@ -9694,7 +9606,7 @@
         <v>116</v>
       </c>
       <c r="AA60" t="s">
-        <v>597</v>
+        <v>233</v>
       </c>
       <c r="AB60" t="s">
         <v>36</v>
@@ -9703,7 +9615,7 @@
         <v>36</v>
       </c>
       <c r="AD60">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AE60" t="s">
         <v>36</v>
@@ -9724,12 +9636,12 @@
         <v>36</v>
       </c>
       <c r="AK60" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="B61" t="s">
         <v>535</v>
@@ -9741,73 +9653,73 @@
         <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>537</v>
+        <v>229</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1862</v>
+        <v>232</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1858</v>
       </c>
       <c r="H61" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="J61" t="s">
         <v>36</v>
       </c>
       <c r="K61" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="L61" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="M61" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="N61" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="O61" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="P61" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="Q61" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="R61" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="S61" t="s">
         <v>112</v>
       </c>
       <c r="T61" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="U61" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="V61" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="W61" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="X61" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="Y61" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="Z61" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AA61" t="s">
-        <v>36</v>
+        <v>597</v>
       </c>
       <c r="AB61" t="s">
         <v>36</v>
@@ -9816,7 +9728,7 @@
         <v>36</v>
       </c>
       <c r="AD61">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AE61" t="s">
         <v>36</v>
@@ -9834,45 +9746,45 @@
         <v>36</v>
       </c>
       <c r="AJ61" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="AK61" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:37">
       <c r="A62" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>535</v>
       </c>
       <c r="C62" t="s">
-        <v>833</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>537</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1863</v>
+        <v>533</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1862</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="J62" t="s">
-        <v>402</v>
+        <v>36</v>
       </c>
       <c r="K62" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s">
         <v>130</v>
@@ -9884,22 +9796,22 @@
         <v>137</v>
       </c>
       <c r="O62" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="Q62" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="R62" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="S62" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="T62" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="U62" t="s">
         <v>147</v>
@@ -9929,7 +9841,7 @@
         <v>36</v>
       </c>
       <c r="AD62">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="AE62" t="s">
         <v>36</v>
@@ -9938,41 +9850,41 @@
         <v>36</v>
       </c>
       <c r="AG62" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="AH62" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s">
         <v>36</v>
       </c>
       <c r="AJ62" t="s">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="AK62" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:37">
       <c r="A63" t="s">
-        <v>465</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>464</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>833</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>1863</v>
       </c>
       <c r="H63" t="s">
@@ -9982,7 +9894,7 @@
         <v>170</v>
       </c>
       <c r="J63" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="K63" t="s">
         <v>403</v>
@@ -10009,7 +9921,7 @@
         <v>175</v>
       </c>
       <c r="S63" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
       <c r="T63" t="s">
         <v>172</v>
@@ -10042,7 +9954,7 @@
         <v>36</v>
       </c>
       <c r="AD63">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="AE63" t="s">
         <v>36</v>
@@ -10063,15 +9975,15 @@
         <v>36</v>
       </c>
       <c r="AK63" t="s">
-        <v>556</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:37">
       <c r="A64" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -10080,12 +9992,12 @@
         <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="4">
         <v>1863</v>
       </c>
       <c r="H64" t="s">
@@ -10155,7 +10067,7 @@
         <v>36</v>
       </c>
       <c r="AD64">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE64" t="s">
         <v>36</v>
@@ -10176,15 +10088,15 @@
         <v>36</v>
       </c>
       <c r="AK64" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
     </row>
     <row r="65" spans="1:37">
       <c r="A65" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B65" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -10193,12 +10105,12 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="4">
         <v>1863</v>
       </c>
       <c r="H65" t="s">
@@ -10235,7 +10147,7 @@
         <v>175</v>
       </c>
       <c r="S65" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="T65" t="s">
         <v>172</v>
@@ -10268,7 +10180,7 @@
         <v>36</v>
       </c>
       <c r="AD65">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AE65" t="s">
         <v>36</v>
@@ -10289,15 +10201,15 @@
         <v>36</v>
       </c>
       <c r="AK65" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:37">
       <c r="A66" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B66" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -10306,12 +10218,12 @@
         <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>559</v>
+        <v>167</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>1863</v>
       </c>
       <c r="H66" t="s">
@@ -10381,7 +10293,7 @@
         <v>36</v>
       </c>
       <c r="AD66">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AE66" t="s">
         <v>36</v>
@@ -10402,15 +10314,15 @@
         <v>36</v>
       </c>
       <c r="AK66" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:37">
       <c r="A67" t="s">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>557</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -10419,12 +10331,12 @@
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="4">
         <v>1863</v>
       </c>
       <c r="H67" t="s">
@@ -10494,7 +10406,7 @@
         <v>36</v>
       </c>
       <c r="AD67">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE67" t="s">
         <v>36</v>
@@ -10515,15 +10427,15 @@
         <v>36</v>
       </c>
       <c r="AK67" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:37">
       <c r="A68" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B68" t="s">
-        <v>464</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -10532,12 +10444,12 @@
         <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>607</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="4">
         <v>1863</v>
       </c>
       <c r="H68" t="s">
@@ -10574,7 +10486,7 @@
         <v>175</v>
       </c>
       <c r="S68" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="T68" t="s">
         <v>172</v>
@@ -10607,7 +10519,7 @@
         <v>36</v>
       </c>
       <c r="AD68">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AE68" t="s">
         <v>36</v>
@@ -10628,15 +10540,15 @@
         <v>36</v>
       </c>
       <c r="AK68" t="s">
-        <v>321</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:37">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>614</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -10645,25 +10557,25 @@
         <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1867</v>
+        <v>404</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1863</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="I69" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J69" t="s">
         <v>36</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s">
         <v>130</v>
@@ -10675,22 +10587,22 @@
         <v>137</v>
       </c>
       <c r="O69" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="P69" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="Q69" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="R69" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="S69" t="s">
         <v>112</v>
       </c>
       <c r="T69" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="U69" t="s">
         <v>147</v>
@@ -10720,7 +10632,7 @@
         <v>36</v>
       </c>
       <c r="AD69">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AE69" t="s">
         <v>36</v>
@@ -10729,10 +10641,10 @@
         <v>36</v>
       </c>
       <c r="AG69" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="AH69" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="AI69" t="s">
         <v>36</v>
@@ -10741,15 +10653,15 @@
         <v>36</v>
       </c>
       <c r="AK69" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:37">
       <c r="A70" t="s">
-        <v>479</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
@@ -10758,12 +10670,12 @@
         <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>485</v>
+        <v>145</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="4">
         <v>1867</v>
       </c>
       <c r="H70" t="s">
@@ -10800,7 +10712,7 @@
         <v>36</v>
       </c>
       <c r="S70" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="T70" t="s">
         <v>146</v>
@@ -10833,7 +10745,7 @@
         <v>36</v>
       </c>
       <c r="AD70">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AE70" t="s">
         <v>36</v>
@@ -10854,15 +10766,15 @@
         <v>36</v>
       </c>
       <c r="AK70" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:37">
       <c r="A71" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -10871,12 +10783,12 @@
         <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>485</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="4">
         <v>1867</v>
       </c>
       <c r="H71" t="s">
@@ -10886,7 +10798,7 @@
         <v>144</v>
       </c>
       <c r="J71" t="s">
-        <v>538</v>
+        <v>36</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -10913,7 +10825,7 @@
         <v>36</v>
       </c>
       <c r="S71" t="s">
-        <v>845</v>
+        <v>47</v>
       </c>
       <c r="T71" t="s">
         <v>146</v>
@@ -10946,7 +10858,7 @@
         <v>36</v>
       </c>
       <c r="AD71">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s">
         <v>36</v>
@@ -10967,15 +10879,15 @@
         <v>36</v>
       </c>
       <c r="AK71" t="s">
-        <v>258</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:37">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s">
-        <v>565</v>
+        <v>489</v>
       </c>
       <c r="C72" t="s">
         <v>36</v>
@@ -10984,12 +10896,12 @@
         <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>567</v>
+        <v>178</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="4">
         <v>1867</v>
       </c>
       <c r="H72" t="s">
@@ -10999,7 +10911,7 @@
         <v>144</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
       <c r="K72" t="s">
         <v>134</v>
@@ -11026,7 +10938,7 @@
         <v>36</v>
       </c>
       <c r="S72" t="s">
-        <v>47</v>
+        <v>844</v>
       </c>
       <c r="T72" t="s">
         <v>146</v>
@@ -11059,7 +10971,7 @@
         <v>36</v>
       </c>
       <c r="AD72">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="AE72" t="s">
         <v>36</v>
@@ -11080,60 +10992,60 @@
         <v>36</v>
       </c>
       <c r="AK72" t="s">
-        <v>476</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:37">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>565</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
         <v>36</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1871</v>
+        <v>135</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1867</v>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="J73" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="K73" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="M73" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="N73" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="O73" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="P73" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="Q73" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="R73" t="s">
         <v>36</v>
@@ -11142,28 +11054,28 @@
         <v>47</v>
       </c>
       <c r="T73" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="U73" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="V73" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="W73" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="X73" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="Y73" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="Z73" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="AA73" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="AB73" t="s">
         <v>36</v>
@@ -11172,7 +11084,7 @@
         <v>36</v>
       </c>
       <c r="AD73">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AE73" t="s">
         <v>36</v>
@@ -11193,42 +11105,42 @@
         <v>36</v>
       </c>
       <c r="AK73" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:37">
       <c r="A74" t="s">
-        <v>548</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>547</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G74" s="2">
+        <v>215</v>
+      </c>
+      <c r="G74" s="4">
         <v>1871</v>
       </c>
       <c r="H74" t="s">
-        <v>546</v>
+        <v>218</v>
       </c>
       <c r="I74" t="s">
-        <v>549</v>
+        <v>219</v>
       </c>
       <c r="J74" t="s">
-        <v>542</v>
+        <v>214</v>
       </c>
       <c r="K74" t="s">
-        <v>543</v>
+        <v>119</v>
       </c>
       <c r="L74" t="s">
         <v>201</v>
@@ -11240,19 +11152,19 @@
         <v>203</v>
       </c>
       <c r="O74" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P74" t="s">
-        <v>550</v>
+        <v>36</v>
       </c>
       <c r="Q74" t="s">
-        <v>551</v>
+        <v>36</v>
       </c>
       <c r="R74" t="s">
-        <v>552</v>
+        <v>36</v>
       </c>
       <c r="S74" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="T74" t="s">
         <v>36</v>
@@ -11285,7 +11197,7 @@
         <v>36</v>
       </c>
       <c r="AD74">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE74" t="s">
         <v>36</v>
@@ -11294,102 +11206,102 @@
         <v>36</v>
       </c>
       <c r="AG74" t="s">
-        <v>553</v>
+        <v>36</v>
       </c>
       <c r="AH74" t="s">
-        <v>554</v>
+        <v>36</v>
       </c>
       <c r="AI74" t="s">
-        <v>555</v>
+        <v>36</v>
       </c>
       <c r="AJ74" t="s">
         <v>36</v>
       </c>
       <c r="AK74" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:37">
       <c r="A75" t="s">
-        <v>683</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s">
-        <v>682</v>
+        <v>547</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
         <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="G75" s="2">
-        <v>1872</v>
+        <v>544</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1871</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>546</v>
       </c>
       <c r="I75" t="s">
-        <v>253</v>
+        <v>549</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="K75" t="s">
-        <v>679</v>
+        <v>543</v>
       </c>
       <c r="L75" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="N75" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="O75" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>550</v>
       </c>
       <c r="Q75" t="s">
-        <v>684</v>
+        <v>551</v>
       </c>
       <c r="R75" t="s">
-        <v>685</v>
+        <v>552</v>
       </c>
       <c r="S75" t="s">
         <v>112</v>
       </c>
       <c r="T75" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="U75" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="V75" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W75" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="X75" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Y75" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="Z75" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AA75" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="AB75" t="s">
         <v>36</v>
@@ -11398,7 +11310,7 @@
         <v>36</v>
       </c>
       <c r="AD75">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AE75" t="s">
         <v>36</v>
@@ -11407,27 +11319,27 @@
         <v>36</v>
       </c>
       <c r="AG75" t="s">
-        <v>36</v>
+        <v>553</v>
       </c>
       <c r="AH75" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="AI75" t="s">
-        <v>36</v>
+        <v>555</v>
       </c>
       <c r="AJ75" t="s">
         <v>36</v>
       </c>
       <c r="AK75" t="s">
-        <v>598</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:37">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>683</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>682</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
@@ -11436,13 +11348,13 @@
         <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1874</v>
+        <v>680</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1872</v>
       </c>
       <c r="H76" t="s">
         <v>251</v>
@@ -11451,10 +11363,10 @@
         <v>253</v>
       </c>
       <c r="J76" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="K76" t="s">
-        <v>37</v>
+        <v>679</v>
       </c>
       <c r="L76" t="s">
         <v>54</v>
@@ -11466,19 +11378,19 @@
         <v>36</v>
       </c>
       <c r="O76" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P76" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="Q76" t="s">
-        <v>36</v>
+        <v>684</v>
       </c>
       <c r="R76" t="s">
-        <v>36</v>
+        <v>685</v>
       </c>
       <c r="S76" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="T76" t="s">
         <v>48</v>
@@ -11511,7 +11423,7 @@
         <v>36</v>
       </c>
       <c r="AD76">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE76" t="s">
         <v>36</v>
@@ -11532,81 +11444,81 @@
         <v>36</v>
       </c>
       <c r="AK76" t="s">
-        <v>68</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:37">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
         <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1878</v>
+        <v>773</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1874</v>
       </c>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="J77" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="K77" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M77" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
       </c>
       <c r="O77" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="P77" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="Q77" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="R77" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="S77" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="T77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="U77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="V77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="W77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="X77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Y77" t="s">
         <v>36</v>
@@ -11624,7 +11536,7 @@
         <v>36</v>
       </c>
       <c r="AD77">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AE77" t="s">
         <v>36</v>
@@ -11633,112 +11545,112 @@
         <v>36</v>
       </c>
       <c r="AG77" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="AH77" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="AI77" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AJ77" t="s">
         <v>36</v>
       </c>
       <c r="AK77" t="s">
-        <v>610</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:37">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="2">
-        <v>1888</v>
+        <v>104</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1878</v>
       </c>
       <c r="H78" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="K78" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="N78" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O78" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="P78" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="Q78" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="R78" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="S78" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="T78" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" t="s">
+        <v>36</v>
+      </c>
+      <c r="X78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD78">
         <v>48</v>
       </c>
-      <c r="U78" t="s">
-        <v>49</v>
-      </c>
-      <c r="V78" t="s">
-        <v>50</v>
-      </c>
-      <c r="W78" t="s">
-        <v>51</v>
-      </c>
-      <c r="X78" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD78">
-        <v>56</v>
-      </c>
       <c r="AE78" t="s">
         <v>36</v>
       </c>
@@ -11746,51 +11658,51 @@
         <v>36</v>
       </c>
       <c r="AG78" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="AH78" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="AI78" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AJ78" t="s">
         <v>36</v>
       </c>
       <c r="AK78" t="s">
-        <v>681</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:37">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
         <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="4">
         <v>1888</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
       </c>
       <c r="I79" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="J79" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="K79" t="s">
         <v>37</v>
@@ -11817,7 +11729,7 @@
         <v>36</v>
       </c>
       <c r="S79" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="T79" t="s">
         <v>48</v>
@@ -11850,7 +11762,7 @@
         <v>36</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AE79" t="s">
         <v>36</v>
@@ -11871,39 +11783,39 @@
         <v>36</v>
       </c>
       <c r="AK79" t="s">
-        <v>272</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:37">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D80" t="s">
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="4">
         <v>1888</v>
       </c>
       <c r="H80" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="I80" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="J80" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="K80" t="s">
         <v>37</v>
@@ -11918,10 +11830,10 @@
         <v>41</v>
       </c>
       <c r="O80" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="P80" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q80" t="s">
         <v>36</v>
@@ -11930,10 +11842,10 @@
         <v>36</v>
       </c>
       <c r="S80" t="s">
+        <v>72</v>
+      </c>
+      <c r="T80" t="s">
         <v>48</v>
-      </c>
-      <c r="T80" t="s">
-        <v>72</v>
       </c>
       <c r="U80" t="s">
         <v>49</v>
@@ -11963,7 +11875,7 @@
         <v>36</v>
       </c>
       <c r="AD80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE80" t="s">
         <v>36</v>
@@ -11984,15 +11896,15 @@
         <v>36</v>
       </c>
       <c r="AK80" t="s">
-        <v>643</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:37">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>509</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
         <v>36</v>
@@ -12001,22 +11913,22 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="4">
         <v>1888</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="J81" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="K81" t="s">
         <v>37</v>
@@ -12031,10 +11943,10 @@
         <v>41</v>
       </c>
       <c r="O81" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="P81" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q81" t="s">
         <v>36</v>
@@ -12043,10 +11955,10 @@
         <v>36</v>
       </c>
       <c r="S81" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="T81" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="U81" t="s">
         <v>49</v>
@@ -12076,7 +11988,7 @@
         <v>36</v>
       </c>
       <c r="AD81">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="AE81" t="s">
         <v>36</v>
@@ -12097,15 +12009,15 @@
         <v>36</v>
       </c>
       <c r="AK81" t="s">
-        <v>508</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:37">
       <c r="A82" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="B82" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -12114,40 +12026,40 @@
         <v>36</v>
       </c>
       <c r="E82" t="s">
-        <v>447</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="G82" s="2">
-        <v>1891</v>
+        <v>38</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1888</v>
       </c>
       <c r="H82" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s">
         <v>36</v>
       </c>
       <c r="K82" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="L82" t="s">
-        <v>440</v>
+        <v>39</v>
       </c>
       <c r="M82" t="s">
-        <v>441</v>
+        <v>40</v>
       </c>
       <c r="N82" t="s">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="O82" t="s">
-        <v>448</v>
+        <v>54</v>
       </c>
       <c r="P82" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q82" t="s">
         <v>36</v>
@@ -12159,25 +12071,25 @@
         <v>112</v>
       </c>
       <c r="T82" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="U82" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="V82" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="W82" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="X82" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Y82" t="s">
-        <v>443</v>
+        <v>36</v>
       </c>
       <c r="Z82" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="AA82" t="s">
         <v>36</v>
@@ -12189,7 +12101,7 @@
         <v>36</v>
       </c>
       <c r="AD82">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AE82" t="s">
         <v>36</v>
@@ -12210,87 +12122,87 @@
         <v>36</v>
       </c>
       <c r="AK82" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:37">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>446</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="C83" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
         <v>36</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G83" s="2">
-        <v>1893</v>
+        <v>748</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1891</v>
       </c>
       <c r="H83" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="I83" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="J83" t="s">
         <v>36</v>
       </c>
       <c r="K83" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="L83" t="s">
-        <v>121</v>
+        <v>440</v>
       </c>
       <c r="M83" t="s">
-        <v>84</v>
+        <v>441</v>
       </c>
       <c r="N83" t="s">
-        <v>36</v>
+        <v>442</v>
       </c>
       <c r="O83" t="s">
-        <v>94</v>
+        <v>448</v>
       </c>
       <c r="P83" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="Q83" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="R83" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="S83" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="T83" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="U83" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
       <c r="V83" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="W83" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="X83" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="Y83" t="s">
-        <v>36</v>
+        <v>443</v>
       </c>
       <c r="Z83" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="AA83" t="s">
         <v>36</v>
@@ -12302,7 +12214,7 @@
         <v>36</v>
       </c>
       <c r="AD83">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AE83" t="s">
         <v>36</v>
@@ -12311,7 +12223,7 @@
         <v>36</v>
       </c>
       <c r="AG83" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AH83" t="s">
         <v>36</v>
@@ -12323,42 +12235,42 @@
         <v>36</v>
       </c>
       <c r="AK83" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:37">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>329</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="D84" t="s">
         <v>36</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" s="2">
-        <v>1894</v>
+        <v>326</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1893</v>
       </c>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I84" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="J84" t="s">
         <v>36</v>
       </c>
       <c r="K84" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="L84" t="s">
         <v>121</v>
@@ -12370,34 +12282,34 @@
         <v>36</v>
       </c>
       <c r="O84" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="Q84" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="R84" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="S84" t="s">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="T84" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="U84" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="V84" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="W84" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="X84" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="Y84" t="s">
         <v>36</v>
@@ -12415,7 +12327,7 @@
         <v>36</v>
       </c>
       <c r="AD84">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="AE84" t="s">
         <v>36</v>
@@ -12424,93 +12336,93 @@
         <v>36</v>
       </c>
       <c r="AG84" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AH84" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="AI84" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="AJ84" t="s">
         <v>36</v>
       </c>
       <c r="AK84" t="s">
-        <v>605</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:37">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>429</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
         <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G85" s="2">
-        <v>1896</v>
+        <v>120</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1894</v>
       </c>
       <c r="H85" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="J85" t="s">
-        <v>426</v>
+        <v>36</v>
       </c>
       <c r="K85" t="s">
         <v>103</v>
       </c>
       <c r="L85" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="M85" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
       </c>
       <c r="O85" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="P85" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="Q85" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="R85" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="S85" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="T85" t="s">
-        <v>828</v>
+        <v>126</v>
       </c>
       <c r="U85" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="V85" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="W85" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="X85" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="Y85" t="s">
         <v>36</v>
@@ -12528,7 +12440,7 @@
         <v>36</v>
       </c>
       <c r="AD85">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AE85" t="s">
         <v>36</v>
@@ -12537,19 +12449,19 @@
         <v>36</v>
       </c>
       <c r="AG85" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="AH85" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="AI85" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="AJ85" t="s">
         <v>36</v>
       </c>
       <c r="AK85" t="s">
-        <v>314</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:37">
@@ -12557,7 +12469,7 @@
         <v>329</v>
       </c>
       <c r="B86" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -12566,13 +12478,13 @@
         <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G86" s="2">
-        <v>1902</v>
+        <v>427</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1896</v>
       </c>
       <c r="H86" t="s">
         <v>153</v>
@@ -12581,7 +12493,7 @@
         <v>178</v>
       </c>
       <c r="J86" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K86" t="s">
         <v>103</v>
@@ -12599,7 +12511,7 @@
         <v>36</v>
       </c>
       <c r="P86" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q86" t="s">
         <v>138</v>
@@ -12608,10 +12520,10 @@
         <v>137</v>
       </c>
       <c r="S86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T86" t="s">
-        <v>36</v>
+        <v>828</v>
       </c>
       <c r="U86" t="s">
         <v>36</v>
@@ -12641,7 +12553,7 @@
         <v>36</v>
       </c>
       <c r="AD86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE86" t="s">
         <v>36</v>
@@ -12662,7 +12574,7 @@
         <v>36</v>
       </c>
       <c r="AK86" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:37">
@@ -12670,7 +12582,7 @@
         <v>329</v>
       </c>
       <c r="B87" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -12679,13 +12591,13 @@
         <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G87" s="2">
-        <v>1906</v>
+        <v>416</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1902</v>
       </c>
       <c r="H87" t="s">
         <v>153</v>
@@ -12694,7 +12606,7 @@
         <v>178</v>
       </c>
       <c r="J87" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="K87" t="s">
         <v>103</v>
@@ -12715,13 +12627,13 @@
         <v>139</v>
       </c>
       <c r="Q87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R87" t="s">
         <v>137</v>
       </c>
       <c r="S87" t="s">
-        <v>388</v>
+        <v>148</v>
       </c>
       <c r="T87" t="s">
         <v>36</v>
@@ -12754,7 +12666,7 @@
         <v>36</v>
       </c>
       <c r="AD87">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE87" t="s">
         <v>36</v>
@@ -12775,66 +12687,66 @@
         <v>36</v>
       </c>
       <c r="AK87" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:37">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
         <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G88" s="2">
-        <v>1908</v>
+        <v>385</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1906</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="I88" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="J88" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="K88" t="s">
         <v>103</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="M88" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="N88" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="O88" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="Q88" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="R88" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="S88" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="T88" t="s">
         <v>36</v>
@@ -12867,7 +12779,7 @@
         <v>36</v>
       </c>
       <c r="AD88">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE88" t="s">
         <v>36</v>
@@ -12876,10 +12788,10 @@
         <v>36</v>
       </c>
       <c r="AG88" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AH88" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="AI88" t="s">
         <v>36</v>
@@ -12888,36 +12800,36 @@
         <v>36</v>
       </c>
       <c r="AK88" t="s">
-        <v>669</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:37">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>847</v>
+        <v>200</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1912</v>
+        <v>190</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1908</v>
       </c>
       <c r="H89" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I89" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J89" t="s">
         <v>36</v>
@@ -12926,28 +12838,28 @@
         <v>103</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="M89" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="N89" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="O89" t="s">
-        <v>377</v>
+        <v>121</v>
       </c>
       <c r="P89" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="Q89" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="R89" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="S89" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="T89" t="s">
         <v>36</v>
@@ -12980,7 +12892,7 @@
         <v>36</v>
       </c>
       <c r="AD89">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AE89" t="s">
         <v>36</v>
@@ -12989,10 +12901,10 @@
         <v>36</v>
       </c>
       <c r="AG89" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="AH89" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="AI89" t="s">
         <v>36</v>
@@ -13001,7 +12913,7 @@
         <v>36</v>
       </c>
       <c r="AK89" t="s">
-        <v>357</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:37">
@@ -13009,7 +12921,7 @@
         <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -13018,49 +12930,49 @@
         <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>846</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G90" s="2">
-        <v>1914</v>
+        <v>373</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1912</v>
       </c>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I90" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="J90" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="K90" t="s">
         <v>103</v>
       </c>
       <c r="L90" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="M90" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="N90" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="O90" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="P90" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="Q90" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="R90" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="S90" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="T90" t="s">
         <v>36</v>
@@ -13093,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="AD90">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE90" t="s">
         <v>36</v>
@@ -13102,7 +13014,7 @@
         <v>36</v>
       </c>
       <c r="AG90" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AH90" t="s">
         <v>36</v>
@@ -13111,103 +13023,103 @@
         <v>36</v>
       </c>
       <c r="AJ90" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="AK90" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:37">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" s="2">
-        <v>1915</v>
+        <v>336</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1914</v>
       </c>
       <c r="H91" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I91" t="s">
-        <v>712</v>
+        <v>94</v>
       </c>
       <c r="J91" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="K91" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="M91" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="N91" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="O91" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="P91" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>36</v>
+      </c>
+      <c r="R91" t="s">
+        <v>36</v>
+      </c>
+      <c r="S91" t="s">
+        <v>334</v>
+      </c>
+      <c r="T91" t="s">
+        <v>36</v>
+      </c>
+      <c r="U91" t="s">
+        <v>36</v>
+      </c>
+      <c r="V91" t="s">
+        <v>36</v>
+      </c>
+      <c r="W91" t="s">
+        <v>36</v>
+      </c>
+      <c r="X91" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD91">
         <v>40</v>
       </c>
-      <c r="Q91" t="s">
-        <v>41</v>
-      </c>
-      <c r="R91" t="s">
-        <v>36</v>
-      </c>
-      <c r="S91" t="s">
-        <v>49</v>
-      </c>
-      <c r="T91" t="s">
-        <v>72</v>
-      </c>
-      <c r="U91" t="s">
-        <v>48</v>
-      </c>
-      <c r="V91" t="s">
-        <v>51</v>
-      </c>
-      <c r="W91" t="s">
-        <v>50</v>
-      </c>
-      <c r="X91" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD91">
-        <v>14</v>
-      </c>
       <c r="AE91" t="s">
         <v>36</v>
       </c>
@@ -13224,84 +13136,84 @@
         <v>36</v>
       </c>
       <c r="AJ91" t="s">
-        <v>36</v>
+        <v>354</v>
       </c>
       <c r="AK91" t="s">
-        <v>157</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:37">
       <c r="A92" t="s">
-        <v>658</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>670</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G92" s="2">
+        <v>87</v>
+      </c>
+      <c r="G92" s="4">
         <v>1915</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I92" t="s">
-        <v>535</v>
+        <v>712</v>
       </c>
       <c r="J92" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>668</v>
+        <v>86</v>
       </c>
       <c r="L92" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M92" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N92" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O92" t="s">
+        <v>91</v>
+      </c>
+      <c r="P92" t="s">
         <v>40</v>
       </c>
-      <c r="P92" t="s">
-        <v>36</v>
-      </c>
       <c r="Q92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R92" t="s">
         <v>36</v>
       </c>
       <c r="S92" t="s">
-        <v>671</v>
+        <v>49</v>
       </c>
       <c r="T92" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="U92" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="V92" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W92" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X92" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Y92" t="s">
         <v>36</v>
@@ -13319,7 +13231,7 @@
         <v>36</v>
       </c>
       <c r="AD92">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AE92" t="s">
         <v>36</v>
@@ -13340,42 +13252,42 @@
         <v>36</v>
       </c>
       <c r="AK92" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:37">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>658</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>670</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="2">
-        <v>1918</v>
+        <v>719</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1915</v>
       </c>
       <c r="H93" t="s">
-        <v>62</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>712</v>
+        <v>59</v>
+      </c>
+      <c r="I93" t="s">
+        <v>535</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="K93" t="s">
-        <v>56</v>
+        <v>668</v>
       </c>
       <c r="L93" t="s">
         <v>58</v>
@@ -13387,19 +13299,19 @@
         <v>60</v>
       </c>
       <c r="O93" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="P93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R93" t="s">
         <v>36</v>
       </c>
       <c r="S93" t="s">
-        <v>65</v>
+        <v>671</v>
       </c>
       <c r="T93" t="s">
         <v>36</v>
@@ -13432,7 +13344,7 @@
         <v>36</v>
       </c>
       <c r="AD93">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AE93" t="s">
         <v>36</v>
@@ -13448,98 +13360,104 @@
       </c>
       <c r="AI93" t="s">
         <v>36</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:37">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>832</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>830</v>
+        <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="G94" s="2">
+        <v>57</v>
+      </c>
+      <c r="G94" s="4">
         <v>1918</v>
       </c>
       <c r="H94" t="s">
-        <v>130</v>
-      </c>
-      <c r="I94" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="J94" t="s">
-        <v>435</v>
+        <v>55</v>
       </c>
       <c r="K94" t="s">
-        <v>827</v>
+        <v>56</v>
       </c>
       <c r="L94" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M94" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="N94" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="O94" t="s">
+        <v>66</v>
+      </c>
+      <c r="P94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q94" t="s">
         <v>41</v>
       </c>
-      <c r="P94" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>36</v>
-      </c>
       <c r="R94" t="s">
         <v>36</v>
       </c>
       <c r="S94" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="T94" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="U94" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="V94" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="W94" t="s">
-        <v>438</v>
+        <v>36</v>
       </c>
       <c r="X94" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="Y94" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="Z94" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AA94" t="s">
         <v>36</v>
       </c>
       <c r="AB94" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="AC94" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD94">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE94" t="s">
         <v>36</v>
@@ -13555,47 +13473,41 @@
       </c>
       <c r="AI94" t="s">
         <v>36</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:37">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>832</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>830</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="G95" s="2">
-        <v>1921</v>
+        <v>825</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1918</v>
       </c>
       <c r="H95" t="s">
-        <v>62</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>247</v>
+        <v>130</v>
+      </c>
+      <c r="I95" t="s">
+        <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="K95" t="s">
-        <v>74</v>
+        <v>827</v>
       </c>
       <c r="L95" t="s">
         <v>75</v>
@@ -13607,34 +13519,34 @@
         <v>77</v>
       </c>
       <c r="O95" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="P95" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="Q95" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R95" t="s">
         <v>36</v>
       </c>
       <c r="S95" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="T95" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="U95" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="V95" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="W95" t="s">
-        <v>51</v>
+        <v>438</v>
       </c>
       <c r="X95" t="s">
-        <v>52</v>
+        <v>439</v>
       </c>
       <c r="Y95" t="s">
         <v>78</v>
@@ -13646,13 +13558,13 @@
         <v>36</v>
       </c>
       <c r="AB95" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="AC95" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD95">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AE95" t="s">
         <v>36</v>
@@ -13669,88 +13581,91 @@
       <c r="AI95" t="s">
         <v>36</v>
       </c>
+      <c r="AJ95" t="s">
+        <v>36</v>
+      </c>
       <c r="AK95" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:37">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" s="2">
-        <v>1934</v>
+        <v>826</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1921</v>
       </c>
       <c r="H96" t="s">
-        <v>200</v>
-      </c>
-      <c r="I96" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="J96" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="K96" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="L96" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="M96" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="N96" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="O96" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="Q96" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="R96" t="s">
         <v>36</v>
       </c>
       <c r="S96" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="T96" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="U96" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="V96" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="W96" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="X96" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Y96" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Z96" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AA96" t="s">
         <v>36</v>
@@ -13762,7 +13677,7 @@
         <v>36</v>
       </c>
       <c r="AD96">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AE96" t="s">
         <v>36</v>
@@ -13779,46 +13694,43 @@
       <c r="AI96" t="s">
         <v>36</v>
       </c>
-      <c r="AJ96" t="s">
-        <v>36</v>
-      </c>
       <c r="AK96" t="s">
-        <v>696</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:37">
       <c r="A97" t="s">
-        <v>831</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>830</v>
+        <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G97" s="2">
-        <v>1935</v>
+        <v>207</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1934</v>
       </c>
       <c r="H97" t="s">
-        <v>491</v>
+        <v>200</v>
       </c>
       <c r="I97" t="s">
-        <v>492</v>
+        <v>121</v>
       </c>
       <c r="J97" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="K97" t="s">
-        <v>490</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s">
         <v>208</v>
@@ -13830,19 +13742,19 @@
         <v>210</v>
       </c>
       <c r="O97" t="s">
-        <v>497</v>
+        <v>213</v>
       </c>
       <c r="P97" t="s">
-        <v>493</v>
+        <v>192</v>
       </c>
       <c r="Q97" t="s">
-        <v>494</v>
+        <v>193</v>
       </c>
       <c r="R97" t="s">
-        <v>495</v>
+        <v>36</v>
       </c>
       <c r="S97" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="T97" t="s">
         <v>36</v>
@@ -13875,7 +13787,7 @@
         <v>36</v>
       </c>
       <c r="AD97">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE97" t="s">
         <v>36</v>
@@ -13884,7 +13796,7 @@
         <v>36</v>
       </c>
       <c r="AG97" t="s">
-        <v>496</v>
+        <v>36</v>
       </c>
       <c r="AH97" t="s">
         <v>36</v>
@@ -13896,69 +13808,69 @@
         <v>36</v>
       </c>
       <c r="AK97" t="s">
-        <v>451</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="1:37">
       <c r="A98" t="s">
-        <v>658</v>
+        <v>831</v>
       </c>
       <c r="B98" t="s">
-        <v>657</v>
+        <v>387</v>
       </c>
       <c r="C98" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>830</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G98" s="2">
-        <v>1936</v>
+        <v>813</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1935</v>
       </c>
       <c r="H98" t="s">
-        <v>656</v>
+        <v>491</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>492</v>
       </c>
       <c r="J98" t="s">
-        <v>648</v>
+        <v>36</v>
       </c>
       <c r="K98" t="s">
-        <v>649</v>
+        <v>490</v>
       </c>
       <c r="L98" t="s">
-        <v>651</v>
+        <v>208</v>
       </c>
       <c r="M98" t="s">
-        <v>652</v>
+        <v>209</v>
       </c>
       <c r="N98" t="s">
-        <v>653</v>
+        <v>210</v>
       </c>
       <c r="O98" t="s">
-        <v>659</v>
+        <v>497</v>
       </c>
       <c r="P98" t="s">
-        <v>59</v>
+        <v>493</v>
       </c>
       <c r="Q98" t="s">
-        <v>60</v>
+        <v>494</v>
       </c>
       <c r="R98" t="s">
-        <v>36</v>
+        <v>495</v>
       </c>
       <c r="S98" t="s">
         <v>47</v>
       </c>
       <c r="T98" t="s">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="U98" t="s">
         <v>36</v>
@@ -13973,7 +13885,7 @@
         <v>36</v>
       </c>
       <c r="Y98" t="s">
-        <v>654</v>
+        <v>211</v>
       </c>
       <c r="Z98" t="s">
         <v>36</v>
@@ -13988,7 +13900,7 @@
         <v>36</v>
       </c>
       <c r="AD98">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AE98" t="s">
         <v>36</v>
@@ -13997,7 +13909,7 @@
         <v>36</v>
       </c>
       <c r="AG98" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="AH98" t="s">
         <v>36</v>
@@ -14009,185 +13921,185 @@
         <v>36</v>
       </c>
       <c r="AK98" t="s">
-        <v>561</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:37">
       <c r="A99" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>657</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>837</v>
+        <v>371</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="G99" s="2">
-        <v>1937</v>
+        <v>650</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1936</v>
       </c>
       <c r="H99" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="I99" t="s">
-        <v>797</v>
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
+        <v>648</v>
+      </c>
+      <c r="K99" t="s">
+        <v>649</v>
       </c>
       <c r="L99" t="s">
-        <v>803</v>
+        <v>651</v>
       </c>
       <c r="M99" t="s">
-        <v>804</v>
+        <v>652</v>
       </c>
       <c r="N99" t="s">
-        <v>805</v>
+        <v>653</v>
       </c>
       <c r="O99" t="s">
-        <v>806</v>
+        <v>659</v>
       </c>
       <c r="P99" t="s">
-        <v>835</v>
+        <v>59</v>
       </c>
       <c r="Q99" t="s">
-        <v>353</v>
+        <v>60</v>
+      </c>
+      <c r="R99" t="s">
+        <v>36</v>
       </c>
       <c r="S99" t="s">
         <v>47</v>
       </c>
+      <c r="T99" t="s">
+        <v>352</v>
+      </c>
+      <c r="U99" t="s">
+        <v>36</v>
+      </c>
+      <c r="V99" t="s">
+        <v>36</v>
+      </c>
+      <c r="W99" t="s">
+        <v>36</v>
+      </c>
+      <c r="X99" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>36</v>
+      </c>
       <c r="AD99">
-        <v>130</v>
-      </c>
-      <c r="AE99" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>36</v>
+      </c>
       <c r="AJ99" t="s">
         <v>36</v>
       </c>
       <c r="AK99" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:37">
       <c r="A100" t="s">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="B100" t="s">
-        <v>589</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" t="s">
-        <v>583</v>
+        <v>124</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1941</v>
+        <v>811</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1937</v>
       </c>
       <c r="H100" t="s">
-        <v>588</v>
+        <v>796</v>
       </c>
       <c r="I100" t="s">
-        <v>590</v>
-      </c>
-      <c r="J100" t="s">
-        <v>36</v>
-      </c>
-      <c r="K100" t="s">
-        <v>74</v>
+        <v>797</v>
       </c>
       <c r="L100" t="s">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="M100" t="s">
-        <v>36</v>
+        <v>804</v>
       </c>
       <c r="N100" t="s">
-        <v>36</v>
+        <v>805</v>
       </c>
       <c r="O100" t="s">
-        <v>596</v>
+        <v>806</v>
       </c>
       <c r="P100" t="s">
-        <v>588</v>
+        <v>835</v>
       </c>
       <c r="Q100" t="s">
-        <v>591</v>
-      </c>
-      <c r="R100" t="s">
-        <v>592</v>
+        <v>353</v>
       </c>
       <c r="S100" t="s">
         <v>47</v>
       </c>
-      <c r="T100" t="s">
-        <v>36</v>
-      </c>
-      <c r="U100" t="s">
-        <v>36</v>
-      </c>
-      <c r="V100" t="s">
-        <v>36</v>
-      </c>
-      <c r="W100" t="s">
-        <v>36</v>
-      </c>
-      <c r="X100" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>36</v>
-      </c>
       <c r="AD100">
-        <v>37</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH100" t="s">
-        <v>594</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>595</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AE100" s="2"/>
       <c r="AJ100" t="s">
         <v>36</v>
       </c>
       <c r="AK100" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:37">
       <c r="A101" t="s">
-        <v>658</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="C101" t="s">
         <v>36</v>
@@ -14196,28 +14108,28 @@
         <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>583</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1942</v>
+        <v>587</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1941</v>
       </c>
       <c r="H101" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>590</v>
       </c>
       <c r="J101" t="s">
         <v>36</v>
       </c>
       <c r="K101" t="s">
-        <v>664</v>
+        <v>74</v>
       </c>
       <c r="L101" t="s">
-        <v>36</v>
+        <v>586</v>
       </c>
       <c r="M101" t="s">
         <v>36</v>
@@ -14226,16 +14138,16 @@
         <v>36</v>
       </c>
       <c r="O101" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="P101" t="s">
-        <v>58</v>
+        <v>588</v>
       </c>
       <c r="Q101" t="s">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="R101" t="s">
-        <v>36</v>
+        <v>592</v>
       </c>
       <c r="S101" t="s">
         <v>47</v>
@@ -14271,7 +14183,7 @@
         <v>36</v>
       </c>
       <c r="AD101">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE101" t="s">
         <v>36</v>
@@ -14280,208 +14192,211 @@
         <v>36</v>
       </c>
       <c r="AG101" t="s">
-        <v>36</v>
+        <v>593</v>
       </c>
       <c r="AH101" t="s">
-        <v>36</v>
+        <v>594</v>
       </c>
       <c r="AI101" t="s">
-        <v>36</v>
+        <v>595</v>
       </c>
       <c r="AJ101" t="s">
         <v>36</v>
       </c>
       <c r="AK101" t="s">
-        <v>603</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:37">
       <c r="A102" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B102" t="s">
-        <v>802</v>
+        <v>666</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>835</v>
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" t="s">
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="G102" s="2">
+        <v>665</v>
+      </c>
+      <c r="G102" s="4">
         <v>1942</v>
       </c>
       <c r="H102" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="I102" t="s">
-        <v>797</v>
+        <v>40</v>
+      </c>
+      <c r="J102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" t="s">
+        <v>664</v>
+      </c>
+      <c r="L102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" t="s">
+        <v>36</v>
+      </c>
+      <c r="N102" t="s">
+        <v>36</v>
       </c>
       <c r="O102" t="s">
-        <v>807</v>
+        <v>667</v>
       </c>
       <c r="P102" t="s">
-        <v>837</v>
+        <v>58</v>
       </c>
       <c r="Q102" t="s">
-        <v>353</v>
+        <v>60</v>
+      </c>
+      <c r="R102" t="s">
+        <v>36</v>
       </c>
       <c r="S102" t="s">
         <v>47</v>
       </c>
+      <c r="T102" t="s">
+        <v>36</v>
+      </c>
+      <c r="U102" t="s">
+        <v>36</v>
+      </c>
+      <c r="V102" t="s">
+        <v>36</v>
+      </c>
+      <c r="W102" t="s">
+        <v>36</v>
+      </c>
+      <c r="X102" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>36</v>
+      </c>
       <c r="AD102">
-        <v>131</v>
+        <v>35</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>36</v>
       </c>
       <c r="AJ102" t="s">
         <v>36</v>
       </c>
       <c r="AK102" t="s">
-        <v>357</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:37">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>675</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>802</v>
       </c>
       <c r="C103" t="s">
-        <v>832</v>
-      </c>
-      <c r="D103" t="s">
-        <v>400</v>
-      </c>
-      <c r="E103" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>835</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G103" s="2">
-        <v>1944</v>
+        <v>812</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1942</v>
       </c>
       <c r="H103" t="s">
-        <v>84</v>
+        <v>796</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
-      </c>
-      <c r="J103" t="s">
-        <v>433</v>
-      </c>
-      <c r="K103" t="s">
-        <v>389</v>
-      </c>
-      <c r="L103" t="s">
-        <v>390</v>
-      </c>
-      <c r="M103" t="s">
-        <v>391</v>
-      </c>
-      <c r="N103" t="s">
-        <v>361</v>
+        <v>797</v>
       </c>
       <c r="O103" t="s">
-        <v>399</v>
+        <v>807</v>
       </c>
       <c r="P103" t="s">
-        <v>76</v>
+        <v>837</v>
       </c>
       <c r="Q103" t="s">
-        <v>77</v>
-      </c>
-      <c r="R103" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="S103" t="s">
-        <v>365</v>
-      </c>
-      <c r="T103" t="s">
-        <v>396</v>
-      </c>
-      <c r="U103" t="s">
-        <v>397</v>
-      </c>
-      <c r="V103" t="s">
-        <v>333</v>
-      </c>
-      <c r="W103" t="s">
-        <v>50</v>
-      </c>
-      <c r="X103" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="AD103">
-        <v>4</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI103" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="AJ103" t="s">
         <v>36</v>
       </c>
       <c r="AK103" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:37">
       <c r="A104" t="s">
-        <v>647</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
-        <v>646</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>832</v>
+      </c>
+      <c r="D104" t="s">
+        <v>400</v>
       </c>
       <c r="E104" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>848</v>
+        <v>434</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1944</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I104" t="s">
         <v>41</v>
       </c>
       <c r="J104" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="K104" t="s">
         <v>389</v>
@@ -14508,7 +14423,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="T104" t="s">
         <v>396</v>
@@ -14517,7 +14432,7 @@
         <v>397</v>
       </c>
       <c r="V104" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="W104" t="s">
         <v>50</v>
@@ -14541,7 +14456,7 @@
         <v>259</v>
       </c>
       <c r="AD104">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="AE104" t="s">
         <v>395</v>
@@ -14562,7 +14477,7 @@
         <v>36</v>
       </c>
       <c r="AK104" t="s">
-        <v>461</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:37">
@@ -14584,7 +14499,7 @@
       <c r="F105" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="4">
         <v>1944</v>
       </c>
       <c r="H105" t="s">
@@ -14697,7 +14612,7 @@
       <c r="F106" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="4">
         <v>1945</v>
       </c>
       <c r="H106" t="s">
@@ -14810,7 +14725,7 @@
       <c r="F107" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="4">
         <v>1946</v>
       </c>
       <c r="H107" t="s">
@@ -14891,73 +14806,64 @@
     </row>
     <row r="108" spans="1:37">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>848</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
         <v>36</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G108" s="2">
+        <v>851</v>
+      </c>
+      <c r="G108" s="4">
         <v>1946</v>
       </c>
       <c r="H108" t="s">
-        <v>84</v>
+        <v>852</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>853</v>
       </c>
       <c r="J108" t="s">
-        <v>355</v>
+        <v>849</v>
       </c>
       <c r="K108" t="s">
-        <v>255</v>
+        <v>850</v>
       </c>
       <c r="L108" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="M108" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="N108" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="O108" t="s">
-        <v>353</v>
-      </c>
-      <c r="P108" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q108" t="s">
         <v>77</v>
       </c>
-      <c r="R108" t="s">
-        <v>78</v>
-      </c>
       <c r="S108" t="s">
-        <v>721</v>
+        <v>854</v>
       </c>
       <c r="T108" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="U108" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="V108" t="s">
         <v>265</v>
       </c>
       <c r="W108" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="X108" t="s">
         <v>267</v>
@@ -14978,10 +14884,10 @@
         <v>259</v>
       </c>
       <c r="AD108">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="AE108" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="AF108" t="s">
         <v>36</v>
@@ -14999,7 +14905,7 @@
         <v>36</v>
       </c>
       <c r="AK108" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:37">
@@ -15007,21 +14913,21 @@
         <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
         <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G109" s="2">
+        <v>356</v>
+      </c>
+      <c r="G109" s="4">
         <v>1946</v>
       </c>
       <c r="H109" t="s">
@@ -15031,22 +14937,28 @@
         <v>41</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="K109" t="s">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="L109" t="s">
-        <v>820</v>
+        <v>346</v>
+      </c>
+      <c r="M109" t="s">
+        <v>347</v>
+      </c>
+      <c r="N109" t="s">
+        <v>348</v>
       </c>
       <c r="O109" t="s">
-        <v>801</v>
+        <v>353</v>
       </c>
       <c r="P109" t="s">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="Q109" t="s">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="R109" t="s">
         <v>78</v>
@@ -15055,16 +14967,16 @@
         <v>721</v>
       </c>
       <c r="T109" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="U109" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="V109" t="s">
         <v>265</v>
       </c>
       <c r="W109" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="X109" t="s">
         <v>267</v>
@@ -15085,7 +14997,7 @@
         <v>259</v>
       </c>
       <c r="AD109">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="AE109" t="s">
         <v>351</v>
@@ -15106,72 +15018,81 @@
         <v>36</v>
       </c>
       <c r="AK109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:37">
       <c r="A110" t="s">
-        <v>329</v>
+        <v>698</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
+        <v>699</v>
       </c>
       <c r="D110" t="s">
         <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="G110" s="2">
+        <v>695</v>
+      </c>
+      <c r="G110" s="4">
         <v>1946</v>
       </c>
       <c r="H110" t="s">
-        <v>84</v>
+        <v>697</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>700</v>
       </c>
       <c r="J110" t="s">
-        <v>36</v>
+        <v>693</v>
       </c>
       <c r="K110" t="s">
-        <v>345</v>
+        <v>694</v>
+      </c>
+      <c r="L110" t="s">
+        <v>391</v>
+      </c>
+      <c r="M110" t="s">
+        <v>361</v>
+      </c>
+      <c r="N110" t="s">
+        <v>392</v>
       </c>
       <c r="O110" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="P110" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="Q110" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="R110" t="s">
-        <v>78</v>
+        <v>705</v>
       </c>
       <c r="S110" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="T110" t="s">
-        <v>263</v>
+        <v>702</v>
       </c>
       <c r="U110" t="s">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="V110" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="W110" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="X110" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="Y110" t="s">
         <v>36</v>
@@ -15186,105 +15107,105 @@
         <v>36</v>
       </c>
       <c r="AC110" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD110">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="AE110" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="AF110" t="s">
         <v>36</v>
       </c>
       <c r="AG110" t="s">
-        <v>79</v>
+        <v>706</v>
       </c>
       <c r="AH110" t="s">
-        <v>36</v>
+        <v>707</v>
       </c>
       <c r="AI110" t="s">
-        <v>36</v>
+        <v>708</v>
       </c>
       <c r="AJ110" t="s">
         <v>36</v>
       </c>
       <c r="AK110" t="s">
-        <v>186</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:37">
       <c r="A111" t="s">
-        <v>698</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>699</v>
+        <v>89</v>
       </c>
       <c r="D111" t="s">
         <v>36</v>
       </c>
       <c r="E111" t="s">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G111" s="2">
-        <v>1946</v>
+        <v>256</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1947</v>
       </c>
       <c r="H111" t="s">
-        <v>697</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s">
-        <v>700</v>
+        <v>41</v>
       </c>
       <c r="J111" t="s">
-        <v>693</v>
+        <v>419</v>
       </c>
       <c r="K111" t="s">
-        <v>694</v>
+        <v>255</v>
       </c>
       <c r="L111" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="M111" t="s">
-        <v>361</v>
+        <v>36</v>
       </c>
       <c r="N111" t="s">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="O111" t="s">
+        <v>261</v>
+      </c>
+      <c r="P111" t="s">
         <v>75</v>
       </c>
-      <c r="P111" t="s">
-        <v>703</v>
-      </c>
       <c r="Q111" t="s">
-        <v>704</v>
+        <v>76</v>
       </c>
       <c r="R111" t="s">
-        <v>705</v>
+        <v>78</v>
       </c>
       <c r="S111" t="s">
-        <v>701</v>
+        <v>262</v>
       </c>
       <c r="T111" t="s">
-        <v>702</v>
+        <v>333</v>
       </c>
       <c r="U111" t="s">
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="V111" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="W111" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="X111" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="Y111" t="s">
         <v>36</v>
@@ -15299,10 +15220,10 @@
         <v>36</v>
       </c>
       <c r="AC111" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD111">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AE111" t="s">
         <v>36</v>
@@ -15311,81 +15232,87 @@
         <v>36</v>
       </c>
       <c r="AG111" t="s">
-        <v>706</v>
+        <v>79</v>
       </c>
       <c r="AH111" t="s">
-        <v>707</v>
+        <v>36</v>
       </c>
       <c r="AI111" t="s">
-        <v>708</v>
+        <v>36</v>
       </c>
       <c r="AJ111" t="s">
         <v>36</v>
       </c>
       <c r="AK111" t="s">
-        <v>572</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:37">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>675</v>
       </c>
       <c r="B112" t="s">
-        <v>850</v>
+        <v>674</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>834</v>
       </c>
       <c r="D112" t="s">
         <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="G112" s="2">
-        <v>1946</v>
+        <v>731</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1947</v>
       </c>
       <c r="H112" t="s">
-        <v>854</v>
+        <v>796</v>
       </c>
       <c r="I112" t="s">
-        <v>855</v>
+        <v>797</v>
       </c>
       <c r="J112" t="s">
-        <v>851</v>
+        <v>36</v>
       </c>
       <c r="K112" t="s">
-        <v>852</v>
+        <v>672</v>
       </c>
       <c r="L112" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="M112" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="N112" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="O112" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="P112" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>835</v>
       </c>
       <c r="S112" t="s">
-        <v>856</v>
+        <v>721</v>
       </c>
       <c r="T112" t="s">
         <v>263</v>
       </c>
       <c r="U112" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="V112" t="s">
         <v>265</v>
       </c>
       <c r="W112" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X112" t="s">
         <v>267</v>
@@ -15406,28 +15333,22 @@
         <v>259</v>
       </c>
       <c r="AD112">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="AE112" t="s">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="AF112" t="s">
         <v>36</v>
       </c>
-      <c r="AG112" t="s">
-        <v>79</v>
-      </c>
       <c r="AH112" t="s">
         <v>36</v>
       </c>
       <c r="AI112" t="s">
         <v>36</v>
       </c>
-      <c r="AJ112" t="s">
-        <v>36</v>
-      </c>
       <c r="AK112" t="s">
-        <v>503</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:37">
@@ -15435,7 +15356,7 @@
         <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="C113" t="s">
         <v>89</v>
@@ -15444,13 +15365,13 @@
         <v>36</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1947</v>
+        <v>425</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1948</v>
       </c>
       <c r="H113" t="s">
         <v>84</v>
@@ -15459,22 +15380,19 @@
         <v>41</v>
       </c>
       <c r="J113" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K113" t="s">
-        <v>255</v>
+        <v>389</v>
       </c>
       <c r="L113" t="s">
-        <v>257</v>
-      </c>
-      <c r="M113" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="N113" t="s">
         <v>36</v>
       </c>
       <c r="O113" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="P113" t="s">
         <v>75</v>
@@ -15483,10 +15401,10 @@
         <v>76</v>
       </c>
       <c r="R113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S113" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="T113" t="s">
         <v>333</v>
@@ -15501,7 +15419,7 @@
         <v>266</v>
       </c>
       <c r="X113" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="Y113" t="s">
         <v>36</v>
@@ -15519,7 +15437,7 @@
         <v>259</v>
       </c>
       <c r="AD113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE113" t="s">
         <v>36</v>
@@ -15540,78 +15458,81 @@
         <v>36</v>
       </c>
       <c r="AK113" t="s">
-        <v>463</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:37">
       <c r="A114" t="s">
-        <v>675</v>
+        <v>285</v>
       </c>
       <c r="B114" t="s">
-        <v>674</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>834</v>
+        <v>286</v>
       </c>
       <c r="D114" t="s">
         <v>36</v>
       </c>
       <c r="E114" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1947</v>
+        <v>750</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1950</v>
       </c>
       <c r="H114" t="s">
-        <v>796</v>
+        <v>283</v>
       </c>
       <c r="I114" t="s">
-        <v>797</v>
+        <v>287</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="K114" t="s">
-        <v>672</v>
+        <v>280</v>
       </c>
       <c r="L114" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="M114" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="N114" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="O114" t="s">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="P114" t="s">
-        <v>836</v>
+        <v>290</v>
       </c>
       <c r="Q114" t="s">
-        <v>835</v>
+        <v>291</v>
+      </c>
+      <c r="R114" t="s">
+        <v>36</v>
       </c>
       <c r="S114" t="s">
-        <v>721</v>
+        <v>289</v>
       </c>
       <c r="T114" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="U114" t="s">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="V114" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="W114" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="X114" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="Y114" t="s">
         <v>36</v>
@@ -15626,60 +15547,63 @@
         <v>36</v>
       </c>
       <c r="AC114" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD114">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE114" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="AF114" t="s">
         <v>36</v>
       </c>
+      <c r="AG114" t="s">
+        <v>36</v>
+      </c>
       <c r="AH114" t="s">
         <v>36</v>
       </c>
       <c r="AI114" t="s">
         <v>36</v>
       </c>
+      <c r="AJ114" t="s">
+        <v>36</v>
+      </c>
       <c r="AK114" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:37">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>515</v>
       </c>
       <c r="B115" t="s">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
         <v>36</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1948</v>
+        <v>814</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1951</v>
       </c>
       <c r="H115" t="s">
-        <v>84</v>
+        <v>735</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
-      </c>
-      <c r="J115" t="s">
-        <v>424</v>
+        <v>736</v>
       </c>
       <c r="K115" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="L115" t="s">
         <v>340</v>
@@ -15688,31 +15612,28 @@
         <v>36</v>
       </c>
       <c r="O115" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="P115" t="s">
-        <v>75</v>
+        <v>821</v>
       </c>
       <c r="Q115" t="s">
-        <v>76</v>
-      </c>
-      <c r="R115" t="s">
-        <v>77</v>
+        <v>822</v>
       </c>
       <c r="S115" t="s">
+        <v>781</v>
+      </c>
+      <c r="T115" t="s">
         <v>342</v>
       </c>
-      <c r="T115" t="s">
-        <v>333</v>
-      </c>
       <c r="U115" t="s">
-        <v>359</v>
+        <v>782</v>
       </c>
       <c r="V115" t="s">
-        <v>265</v>
+        <v>737</v>
       </c>
       <c r="W115" t="s">
-        <v>266</v>
+        <v>738</v>
       </c>
       <c r="X115" t="s">
         <v>343</v>
@@ -15733,7 +15654,7 @@
         <v>259</v>
       </c>
       <c r="AD115">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="AE115" t="s">
         <v>36</v>
@@ -15754,81 +15675,81 @@
         <v>36</v>
       </c>
       <c r="AK115" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:37">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="D116" t="s">
         <v>36</v>
       </c>
       <c r="E116" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1950</v>
+        <v>409</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1956</v>
       </c>
       <c r="H116" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="I116" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="J116" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="K116" t="s">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="L116" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="M116" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="N116" t="s">
         <v>36</v>
       </c>
       <c r="O116" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="Q116" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="R116" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="S116" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
       <c r="T116" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
       <c r="U116" t="s">
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="V116" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="W116" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="X116" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="Y116" t="s">
         <v>36</v>
@@ -15843,10 +15764,10 @@
         <v>36</v>
       </c>
       <c r="AC116" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD116">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AE116" t="s">
         <v>36</v>
@@ -15855,7 +15776,7 @@
         <v>36</v>
       </c>
       <c r="AG116" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s">
         <v>36</v>
@@ -15867,15 +15788,15 @@
         <v>36</v>
       </c>
       <c r="AK116" t="s">
-        <v>107</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:37">
       <c r="A117" t="s">
-        <v>515</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>514</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
         <v>36</v>
@@ -15884,55 +15805,64 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>344</v>
+        <v>182</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="G117" s="2">
-        <v>1951</v>
+        <v>815</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1957</v>
       </c>
       <c r="H117" t="s">
-        <v>735</v>
+        <v>775</v>
       </c>
       <c r="I117" t="s">
-        <v>736</v>
+        <v>774</v>
+      </c>
+      <c r="J117" t="s">
+        <v>36</v>
       </c>
       <c r="K117" t="s">
-        <v>408</v>
+        <v>179</v>
       </c>
       <c r="L117" t="s">
-        <v>340</v>
+        <v>36</v>
+      </c>
+      <c r="M117" t="s">
+        <v>36</v>
       </c>
       <c r="N117" t="s">
         <v>36</v>
       </c>
       <c r="O117" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="P117" t="s">
-        <v>821</v>
+        <v>36</v>
       </c>
       <c r="Q117" t="s">
-        <v>822</v>
+        <v>36</v>
+      </c>
+      <c r="R117" t="s">
+        <v>36</v>
       </c>
       <c r="S117" t="s">
-        <v>781</v>
+        <v>183</v>
       </c>
       <c r="T117" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="U117" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="V117" t="s">
-        <v>737</v>
+        <v>263</v>
       </c>
       <c r="W117" t="s">
-        <v>738</v>
+        <v>264</v>
       </c>
       <c r="X117" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="Y117" t="s">
         <v>36</v>
@@ -15947,10 +15877,10 @@
         <v>36</v>
       </c>
       <c r="AC117" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD117">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="AE117" t="s">
         <v>36</v>
@@ -15959,7 +15889,7 @@
         <v>36</v>
       </c>
       <c r="AG117" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AH117" t="s">
         <v>36</v>
@@ -15971,42 +15901,42 @@
         <v>36</v>
       </c>
       <c r="AK117" t="s">
-        <v>305</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:37">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>585</v>
       </c>
       <c r="B118" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="C118" t="s">
-        <v>412</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G118" s="2">
-        <v>1956</v>
+        <v>582</v>
+      </c>
+      <c r="G118" s="4">
+        <v>1964</v>
       </c>
       <c r="H118" t="s">
-        <v>84</v>
+        <v>583</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J118" t="s">
-        <v>407</v>
+        <v>36</v>
       </c>
       <c r="K118" t="s">
-        <v>408</v>
+        <v>581</v>
       </c>
       <c r="L118" t="s">
         <v>36</v>
@@ -16018,34 +15948,34 @@
         <v>36</v>
       </c>
       <c r="O118" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="P118" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Q118" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="R118" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="S118" t="s">
-        <v>413</v>
+        <v>112</v>
       </c>
       <c r="T118" t="s">
-        <v>414</v>
+        <v>36</v>
       </c>
       <c r="U118" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="V118" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
       <c r="W118" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="X118" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="Y118" t="s">
         <v>36</v>
@@ -16060,10 +15990,10 @@
         <v>36</v>
       </c>
       <c r="AC118" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD118">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AE118" t="s">
         <v>36</v>
@@ -16072,7 +16002,7 @@
         <v>36</v>
       </c>
       <c r="AG118" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH118" t="s">
         <v>36</v>
@@ -16084,84 +16014,81 @@
         <v>36</v>
       </c>
       <c r="AK118" t="s">
-        <v>455</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:37">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>647</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>646</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
       </c>
-      <c r="D119" t="s">
-        <v>36</v>
-      </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="G119" s="2">
-        <v>1957</v>
+        <v>847</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1965</v>
       </c>
       <c r="H119" t="s">
-        <v>775</v>
+        <v>75</v>
       </c>
       <c r="I119" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="J119" t="s">
         <v>36</v>
       </c>
       <c r="K119" t="s">
-        <v>179</v>
+        <v>389</v>
       </c>
       <c r="L119" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="M119" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="N119" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="O119" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="P119" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q119" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="R119" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="S119" t="s">
-        <v>183</v>
+        <v>398</v>
       </c>
       <c r="T119" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="U119" t="s">
-        <v>776</v>
+        <v>397</v>
       </c>
       <c r="V119" t="s">
         <v>263</v>
       </c>
       <c r="W119" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="X119" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="Y119" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="Z119" t="s">
         <v>36</v>
@@ -16173,19 +16100,19 @@
         <v>36</v>
       </c>
       <c r="AC119" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD119">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AE119" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="AF119" t="s">
         <v>36</v>
       </c>
       <c r="AG119" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AH119" t="s">
         <v>36</v>
@@ -16197,42 +16124,42 @@
         <v>36</v>
       </c>
       <c r="AK119" t="s">
-        <v>613</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:37">
       <c r="A120" t="s">
-        <v>585</v>
+        <v>329</v>
       </c>
       <c r="B120" t="s">
-        <v>584</v>
+        <v>370</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>371</v>
       </c>
       <c r="D120" t="s">
         <v>36</v>
       </c>
       <c r="E120" t="s">
-        <v>586</v>
+        <v>346</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1964</v>
+        <v>368</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1968</v>
       </c>
       <c r="H120" t="s">
-        <v>583</v>
+        <v>76</v>
       </c>
       <c r="I120" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
       <c r="J120" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="K120" t="s">
-        <v>581</v>
+        <v>798</v>
       </c>
       <c r="L120" t="s">
         <v>36</v>
@@ -16244,22 +16171,22 @@
         <v>36</v>
       </c>
       <c r="O120" t="s">
-        <v>36</v>
+        <v>734</v>
       </c>
       <c r="P120" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="Q120" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="R120" t="s">
         <v>36</v>
       </c>
       <c r="S120" t="s">
-        <v>112</v>
+        <v>372</v>
       </c>
       <c r="T120" t="s">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="U120" t="s">
         <v>36</v>
@@ -16289,7 +16216,7 @@
         <v>36</v>
       </c>
       <c r="AD120">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE120" t="s">
         <v>36</v>
@@ -16307,10 +16234,10 @@
         <v>36</v>
       </c>
       <c r="AJ120" t="s">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="AK120" t="s">
-        <v>140</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:37">
@@ -16318,76 +16245,73 @@
         <v>329</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C121" t="s">
         <v>371</v>
       </c>
-      <c r="D121" t="s">
-        <v>36</v>
-      </c>
       <c r="E121" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G121" s="2">
-        <v>1968</v>
+        <v>824</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1971</v>
       </c>
       <c r="H121" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" t="s">
+        <v>389</v>
+      </c>
+      <c r="L121" t="s">
+        <v>390</v>
+      </c>
+      <c r="M121" t="s">
+        <v>391</v>
+      </c>
+      <c r="N121" t="s">
+        <v>361</v>
+      </c>
+      <c r="O121" t="s">
+        <v>399</v>
+      </c>
+      <c r="P121" t="s">
         <v>76</v>
       </c>
-      <c r="I121" t="s">
-        <v>353</v>
-      </c>
-      <c r="J121" t="s">
-        <v>367</v>
-      </c>
-      <c r="K121" t="s">
-        <v>798</v>
-      </c>
-      <c r="L121" t="s">
-        <v>36</v>
-      </c>
-      <c r="M121" t="s">
-        <v>36</v>
-      </c>
-      <c r="N121" t="s">
-        <v>36</v>
-      </c>
-      <c r="O121" t="s">
-        <v>734</v>
-      </c>
-      <c r="P121" t="s">
-        <v>347</v>
-      </c>
       <c r="Q121" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="R121" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="S121" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="T121" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="U121" t="s">
-        <v>36</v>
+        <v>397</v>
       </c>
       <c r="V121" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="W121" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X121" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="Y121" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="Z121" t="s">
         <v>36</v>
@@ -16399,19 +16323,19 @@
         <v>36</v>
       </c>
       <c r="AC121" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD121">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="AE121" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="AF121" t="s">
         <v>36</v>
       </c>
       <c r="AG121" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AH121" t="s">
         <v>36</v>
@@ -16420,146 +16344,101 @@
         <v>36</v>
       </c>
       <c r="AJ121" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="AK121" t="s">
-        <v>393</v>
+        <v>673</v>
       </c>
     </row>
     <row r="122" spans="1:37">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>778</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
-      </c>
-      <c r="C122" t="s">
-        <v>371</v>
+        <v>779</v>
       </c>
       <c r="E122" t="s">
-        <v>391</v>
+        <v>777</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="G122" s="2">
-        <v>1971</v>
+        <v>744</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1972</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>780</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
-      </c>
-      <c r="J122" t="s">
-        <v>36</v>
+        <v>783</v>
       </c>
       <c r="K122" t="s">
-        <v>389</v>
+        <v>795</v>
       </c>
       <c r="L122" t="s">
-        <v>390</v>
+        <v>788</v>
       </c>
       <c r="M122" t="s">
-        <v>391</v>
+        <v>785</v>
       </c>
       <c r="N122" t="s">
-        <v>361</v>
+        <v>790</v>
       </c>
       <c r="O122" t="s">
-        <v>399</v>
-      </c>
-      <c r="P122" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>77</v>
-      </c>
-      <c r="R122" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="S122" t="s">
-        <v>365</v>
+        <v>857</v>
       </c>
       <c r="T122" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="U122" t="s">
-        <v>397</v>
+        <v>781</v>
       </c>
       <c r="V122" t="s">
-        <v>263</v>
+        <v>740</v>
       </c>
       <c r="W122" t="s">
-        <v>50</v>
+        <v>741</v>
       </c>
       <c r="X122" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>259</v>
+        <v>742</v>
       </c>
       <c r="AD122">
-        <v>120</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF122" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG122" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI122" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="AJ122" t="s">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="AK122" t="s">
-        <v>673</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:37">
       <c r="A123" t="s">
-        <v>778</v>
+        <v>329</v>
       </c>
       <c r="B123" t="s">
-        <v>779</v>
+        <v>430</v>
       </c>
       <c r="E123" t="s">
-        <v>777</v>
+        <v>340</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="G123" s="2">
+        <v>794</v>
+      </c>
+      <c r="G123" s="4">
         <v>1972</v>
       </c>
       <c r="H123" t="s">
-        <v>780</v>
+        <v>78</v>
       </c>
       <c r="I123" t="s">
-        <v>783</v>
+        <v>344</v>
       </c>
       <c r="K123" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
       <c r="L123" t="s">
         <v>788</v>
@@ -16571,7 +16450,7 @@
         <v>790</v>
       </c>
       <c r="O123" t="s">
-        <v>340</v>
+        <v>777</v>
       </c>
       <c r="S123" t="s">
         <v>737</v>
@@ -16592,13 +16471,13 @@
         <v>742</v>
       </c>
       <c r="AD123">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AJ123" t="s">
         <v>36</v>
       </c>
       <c r="AK123" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:37">
@@ -16606,64 +16485,94 @@
         <v>329</v>
       </c>
       <c r="B124" t="s">
-        <v>430</v>
+        <v>378</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
       </c>
       <c r="E124" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="G124" s="2">
-        <v>1972</v>
+        <v>808</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1975</v>
       </c>
       <c r="H124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I124" t="s">
-        <v>344</v>
+        <v>743</v>
+      </c>
+      <c r="J124" t="s">
+        <v>36</v>
       </c>
       <c r="K124" t="s">
-        <v>739</v>
-      </c>
-      <c r="L124" t="s">
-        <v>788</v>
+        <v>339</v>
       </c>
       <c r="M124" t="s">
-        <v>785</v>
+        <v>36</v>
       </c>
       <c r="N124" t="s">
-        <v>790</v>
-      </c>
-      <c r="O124" t="s">
-        <v>777</v>
+        <v>36</v>
       </c>
       <c r="S124" t="s">
-        <v>737</v>
+        <v>262</v>
       </c>
       <c r="T124" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="U124" t="s">
-        <v>781</v>
+        <v>264</v>
       </c>
       <c r="V124" t="s">
-        <v>740</v>
+        <v>265</v>
       </c>
       <c r="W124" t="s">
-        <v>741</v>
+        <v>266</v>
       </c>
       <c r="X124" t="s">
-        <v>742</v>
+        <v>267</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>259</v>
       </c>
       <c r="AD124">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>36</v>
       </c>
       <c r="AJ124" t="s">
         <v>36</v>
       </c>
       <c r="AK124" t="s">
-        <v>481</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:37">
@@ -16671,58 +16580,73 @@
         <v>329</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D125" t="s">
         <v>36</v>
       </c>
       <c r="E125" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="G125" s="2">
-        <v>1975</v>
+        <v>421</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1976</v>
       </c>
       <c r="H125" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s">
-        <v>743</v>
+        <v>399</v>
       </c>
       <c r="J125" t="s">
         <v>36</v>
       </c>
       <c r="K125" t="s">
-        <v>339</v>
+        <v>360</v>
+      </c>
+      <c r="L125" t="s">
+        <v>364</v>
       </c>
       <c r="M125" t="s">
-        <v>36</v>
+        <v>366</v>
       </c>
       <c r="N125" t="s">
         <v>36</v>
       </c>
+      <c r="O125" t="s">
+        <v>363</v>
+      </c>
+      <c r="P125" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>392</v>
+      </c>
+      <c r="R125" t="s">
+        <v>36</v>
+      </c>
       <c r="S125" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="T125" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="U125" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="V125" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="W125" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="X125" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="Y125" t="s">
         <v>36</v>
@@ -16737,10 +16661,10 @@
         <v>36</v>
       </c>
       <c r="AC125" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="AD125">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="AE125" t="s">
         <v>36</v>
@@ -16748,6 +16672,9 @@
       <c r="AF125" t="s">
         <v>36</v>
       </c>
+      <c r="AG125" t="s">
+        <v>36</v>
+      </c>
       <c r="AH125" t="s">
         <v>36</v>
       </c>
@@ -16758,7 +16685,7 @@
         <v>36</v>
       </c>
       <c r="AK125" t="s">
-        <v>308</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:37">
@@ -16766,77 +16693,74 @@
         <v>329</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
-      </c>
-      <c r="D126" t="s">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="E126" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1976</v>
+        <v>823</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1978</v>
       </c>
       <c r="H126" t="s">
         <v>75</v>
       </c>
       <c r="I126" t="s">
+        <v>41</v>
+      </c>
+      <c r="J126" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" t="s">
+        <v>389</v>
+      </c>
+      <c r="L126" t="s">
+        <v>390</v>
+      </c>
+      <c r="M126" t="s">
+        <v>391</v>
+      </c>
+      <c r="N126" t="s">
+        <v>361</v>
+      </c>
+      <c r="O126" t="s">
         <v>399</v>
       </c>
-      <c r="J126" t="s">
-        <v>36</v>
-      </c>
-      <c r="K126" t="s">
-        <v>360</v>
-      </c>
-      <c r="L126" t="s">
-        <v>364</v>
-      </c>
-      <c r="M126" t="s">
-        <v>366</v>
-      </c>
-      <c r="N126" t="s">
-        <v>36</v>
-      </c>
-      <c r="O126" t="s">
-        <v>363</v>
-      </c>
       <c r="P126" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="Q126" t="s">
+        <v>77</v>
+      </c>
+      <c r="R126" t="s">
+        <v>78</v>
+      </c>
+      <c r="S126" t="s">
+        <v>365</v>
+      </c>
+      <c r="T126" t="s">
+        <v>396</v>
+      </c>
+      <c r="U126" t="s">
+        <v>397</v>
+      </c>
+      <c r="V126" t="s">
+        <v>263</v>
+      </c>
+      <c r="W126" t="s">
+        <v>50</v>
+      </c>
+      <c r="X126" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y126" t="s">
         <v>392</v>
       </c>
-      <c r="R126" t="s">
-        <v>36</v>
-      </c>
-      <c r="S126" t="s">
-        <v>396</v>
-      </c>
-      <c r="T126" t="s">
-        <v>36</v>
-      </c>
-      <c r="U126" t="s">
-        <v>36</v>
-      </c>
-      <c r="V126" t="s">
-        <v>36</v>
-      </c>
-      <c r="W126" t="s">
-        <v>36</v>
-      </c>
-      <c r="X126" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>36</v>
-      </c>
       <c r="Z126" t="s">
         <v>36</v>
       </c>
@@ -16847,19 +16771,19 @@
         <v>36</v>
       </c>
       <c r="AC126" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD126">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="AE126" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="AF126" t="s">
         <v>36</v>
       </c>
       <c r="AG126" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AH126" t="s">
         <v>36</v>
@@ -16871,7 +16795,7 @@
         <v>36</v>
       </c>
       <c r="AK126" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:37">
@@ -16879,73 +16803,67 @@
         <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>383</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
       </c>
       <c r="E127" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="G127" s="2">
+        <v>732</v>
+      </c>
+      <c r="G127" s="4">
         <v>1978</v>
       </c>
       <c r="H127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>855</v>
       </c>
       <c r="J127" t="s">
         <v>36</v>
       </c>
       <c r="K127" t="s">
-        <v>389</v>
-      </c>
-      <c r="L127" t="s">
-        <v>390</v>
-      </c>
-      <c r="M127" t="s">
-        <v>391</v>
-      </c>
-      <c r="N127" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="O127" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="P127" t="s">
-        <v>76</v>
+        <v>799</v>
       </c>
       <c r="Q127" t="s">
-        <v>77</v>
+        <v>800</v>
       </c>
       <c r="R127" t="s">
         <v>78</v>
       </c>
       <c r="S127" t="s">
-        <v>365</v>
+        <v>721</v>
       </c>
       <c r="T127" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="U127" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="V127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W127" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="X127" t="s">
-        <v>398</v>
+        <v>267</v>
       </c>
       <c r="Y127" t="s">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="Z127" t="s">
         <v>36</v>
@@ -16960,10 +16878,10 @@
         <v>259</v>
       </c>
       <c r="AD127">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="AE127" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="AF127" t="s">
         <v>36</v>
@@ -16981,7 +16899,7 @@
         <v>36</v>
       </c>
       <c r="AK127" t="s">
-        <v>564</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:37">
@@ -16989,73 +16907,70 @@
         <v>329</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D128" t="s">
         <v>36</v>
       </c>
       <c r="E128" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="G128" s="2">
-        <v>2000</v>
+        <v>733</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1980</v>
       </c>
       <c r="H128" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s">
-        <v>363</v>
+        <v>855</v>
       </c>
       <c r="J128" t="s">
         <v>36</v>
       </c>
       <c r="K128" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="L128" t="s">
-        <v>36</v>
+        <v>820</v>
       </c>
       <c r="M128" t="s">
-        <v>36</v>
-      </c>
-      <c r="N128" t="s">
-        <v>36</v>
+        <v>856</v>
       </c>
       <c r="O128" t="s">
-        <v>36</v>
+        <v>801</v>
       </c>
       <c r="P128" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="Q128" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="R128" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="S128" t="s">
-        <v>365</v>
+        <v>721</v>
       </c>
       <c r="T128" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="U128" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="V128" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="W128" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="X128" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="Y128" t="s">
         <v>36</v>
@@ -17070,19 +16985,19 @@
         <v>36</v>
       </c>
       <c r="AC128" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="AD128">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AE128" t="s">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="AF128" t="s">
         <v>36</v>
       </c>
       <c r="AG128" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AH128" t="s">
         <v>36</v>
@@ -17094,7 +17009,7 @@
         <v>36</v>
       </c>
       <c r="AK128" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:37">
@@ -17102,22 +17017,22 @@
         <v>329</v>
       </c>
       <c r="B129" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="D129" t="s">
         <v>36</v>
       </c>
       <c r="E129" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="G129" s="2">
-        <v>2002</v>
+        <v>810</v>
+      </c>
+      <c r="G129" s="4">
+        <v>2000</v>
       </c>
       <c r="H129" t="s">
         <v>361</v>
@@ -17144,7 +17059,7 @@
         <v>36</v>
       </c>
       <c r="P129" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q129" t="s">
         <v>36</v>
@@ -17186,7 +17101,7 @@
         <v>36</v>
       </c>
       <c r="AD129">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE129" t="s">
         <v>36</v>
@@ -17202,68 +17117,119 @@
       </c>
       <c r="AI129" t="s">
         <v>36</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:37">
       <c r="A130" t="s">
-        <v>778</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
-        <v>784</v>
+        <v>379</v>
       </c>
       <c r="C130" t="s">
-        <v>89</v>
+        <v>380</v>
+      </c>
+      <c r="D130" t="s">
+        <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>785</v>
+        <v>366</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G130" s="2">
-        <v>2006</v>
+        <v>816</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2002</v>
       </c>
       <c r="H130" t="s">
-        <v>777</v>
+        <v>361</v>
       </c>
       <c r="I130" t="s">
-        <v>340</v>
+        <v>363</v>
+      </c>
+      <c r="J130" t="s">
+        <v>36</v>
       </c>
       <c r="K130" t="s">
-        <v>786</v>
+        <v>360</v>
+      </c>
+      <c r="L130" t="s">
+        <v>36</v>
+      </c>
+      <c r="M130" t="s">
+        <v>36</v>
+      </c>
+      <c r="N130" t="s">
+        <v>36</v>
+      </c>
+      <c r="O130" t="s">
+        <v>36</v>
       </c>
       <c r="P130" t="s">
-        <v>788</v>
+        <v>364</v>
       </c>
       <c r="Q130" t="s">
-        <v>790</v>
+        <v>36</v>
+      </c>
+      <c r="R130" t="s">
+        <v>36</v>
       </c>
       <c r="S130" t="s">
-        <v>741</v>
+        <v>365</v>
       </c>
       <c r="T130" t="s">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="U130" t="s">
-        <v>781</v>
+        <v>36</v>
       </c>
       <c r="V130" t="s">
-        <v>740</v>
+        <v>36</v>
       </c>
       <c r="W130" t="s">
-        <v>741</v>
+        <v>36</v>
       </c>
       <c r="X130" t="s">
-        <v>742</v>
+        <v>36</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>36</v>
       </c>
       <c r="AD130">
-        <v>127</v>
-      </c>
-      <c r="AJ130" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK130" t="s">
-        <v>608</v>
+        <v>22</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:37">
@@ -17271,19 +17237,19 @@
         <v>778</v>
       </c>
       <c r="B131" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E131" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G131" s="2">
-        <v>2008</v>
+        <v>791</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2006</v>
       </c>
       <c r="H131" t="s">
         <v>777</v>
@@ -17295,13 +17261,13 @@
         <v>786</v>
       </c>
       <c r="P131" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q131" t="s">
         <v>790</v>
       </c>
-      <c r="Q131" t="s">
-        <v>785</v>
-      </c>
       <c r="S131" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T131" t="s">
         <v>342</v>
@@ -17319,13 +17285,13 @@
         <v>742</v>
       </c>
       <c r="AD131">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ131" t="s">
         <v>36</v>
       </c>
       <c r="AK131" t="s">
-        <v>506</v>
+        <v>608</v>
       </c>
     </row>
     <row r="132" spans="1:37">
@@ -17333,19 +17299,19 @@
         <v>778</v>
       </c>
       <c r="B132" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C132" t="s">
-        <v>793</v>
+        <v>124</v>
       </c>
       <c r="E132" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="G132" s="2">
-        <v>2011</v>
+        <v>792</v>
+      </c>
+      <c r="G132" s="4">
+        <v>2008</v>
       </c>
       <c r="H132" t="s">
         <v>777</v>
@@ -17357,13 +17323,13 @@
         <v>786</v>
       </c>
       <c r="P132" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="Q132" t="s">
         <v>785</v>
       </c>
       <c r="S132" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T132" t="s">
         <v>342</v>
@@ -17381,34 +17347,75 @@
         <v>742</v>
       </c>
       <c r="AD132">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AJ132" t="s">
         <v>36</v>
       </c>
       <c r="AK132" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:37">
       <c r="A133" t="s">
-        <v>536</v>
+        <v>778</v>
       </c>
       <c r="B133" t="s">
-        <v>478</v>
+        <v>789</v>
+      </c>
+      <c r="C133" t="s">
+        <v>793</v>
       </c>
       <c r="E133" t="s">
-        <v>842</v>
-      </c>
-      <c r="F133"/>
-      <c r="G133" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="J133" t="s">
-        <v>841</v>
+        <v>790</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H133" t="s">
+        <v>777</v>
+      </c>
+      <c r="I133" t="s">
+        <v>340</v>
+      </c>
+      <c r="K133" t="s">
+        <v>786</v>
+      </c>
+      <c r="P133" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>785</v>
       </c>
       <c r="S133" t="s">
-        <v>844</v>
+        <v>742</v>
+      </c>
+      <c r="T133" t="s">
+        <v>342</v>
+      </c>
+      <c r="U133" t="s">
+        <v>781</v>
+      </c>
+      <c r="V133" t="s">
+        <v>740</v>
+      </c>
+      <c r="W133" t="s">
+        <v>741</v>
+      </c>
+      <c r="X133" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD133">
+        <v>129</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:37">
